--- a/business plan/Cash Flow.xlsx
+++ b/business plan/Cash Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="-6700" yWindow="-24440" windowWidth="37220" windowHeight="22700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Forecast" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -474,30 +474,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
@@ -606,6 +582,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -703,7 +731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -755,238 +783,241 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="63" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="21" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="25" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="17" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="23" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="24" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1438,676 +1469,676 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="13" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="17.1640625" style="19"/>
+    <col min="1" max="1" width="50.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="13" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="17.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="82" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:39" s="64" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="72">
+      <c r="D1" s="58">
         <v>1</v>
       </c>
-      <c r="E1" s="73">
+      <c r="E1" s="59">
         <v>2</v>
       </c>
-      <c r="F1" s="73">
+      <c r="F1" s="59">
         <v>3</v>
       </c>
-      <c r="G1" s="73">
+      <c r="G1" s="59">
         <v>4</v>
       </c>
-      <c r="H1" s="73">
+      <c r="H1" s="59">
         <v>5</v>
       </c>
-      <c r="I1" s="73">
+      <c r="I1" s="59">
         <v>6</v>
       </c>
-      <c r="J1" s="73">
+      <c r="J1" s="59">
         <v>7</v>
       </c>
-      <c r="K1" s="73">
+      <c r="K1" s="59">
         <v>8</v>
       </c>
-      <c r="L1" s="73">
+      <c r="L1" s="59">
         <v>9</v>
       </c>
-      <c r="M1" s="73">
+      <c r="M1" s="59">
         <v>10</v>
       </c>
-      <c r="N1" s="73">
+      <c r="N1" s="59">
         <v>11</v>
       </c>
-      <c r="O1" s="74">
+      <c r="O1" s="60">
         <v>12</v>
       </c>
-      <c r="P1" s="72">
+      <c r="P1" s="58">
         <v>13</v>
       </c>
-      <c r="Q1" s="73">
+      <c r="Q1" s="59">
         <v>14</v>
       </c>
-      <c r="R1" s="73">
+      <c r="R1" s="59">
         <v>15</v>
       </c>
-      <c r="S1" s="73">
+      <c r="S1" s="59">
         <v>16</v>
       </c>
-      <c r="T1" s="73">
+      <c r="T1" s="59">
         <v>17</v>
       </c>
-      <c r="U1" s="73">
+      <c r="U1" s="59">
         <v>18</v>
       </c>
-      <c r="V1" s="73">
+      <c r="V1" s="59">
         <v>19</v>
       </c>
-      <c r="W1" s="73">
+      <c r="W1" s="59">
         <v>20</v>
       </c>
-      <c r="X1" s="73">
+      <c r="X1" s="59">
         <v>21</v>
       </c>
-      <c r="Y1" s="73">
+      <c r="Y1" s="59">
         <v>22</v>
       </c>
-      <c r="Z1" s="73">
+      <c r="Z1" s="59">
         <v>23</v>
       </c>
-      <c r="AA1" s="74">
+      <c r="AA1" s="60">
         <v>24</v>
       </c>
-      <c r="AB1" s="72">
+      <c r="AB1" s="58">
         <v>25</v>
       </c>
-      <c r="AC1" s="73">
+      <c r="AC1" s="59">
         <v>26</v>
       </c>
-      <c r="AD1" s="73">
+      <c r="AD1" s="59">
         <v>27</v>
       </c>
-      <c r="AE1" s="73">
+      <c r="AE1" s="59">
         <v>28</v>
       </c>
-      <c r="AF1" s="73">
+      <c r="AF1" s="59">
         <v>29</v>
       </c>
-      <c r="AG1" s="73">
+      <c r="AG1" s="59">
         <v>30</v>
       </c>
-      <c r="AH1" s="73">
+      <c r="AH1" s="59">
         <v>31</v>
       </c>
-      <c r="AI1" s="73">
+      <c r="AI1" s="59">
         <v>32</v>
       </c>
-      <c r="AJ1" s="73">
+      <c r="AJ1" s="59">
         <v>33</v>
       </c>
-      <c r="AK1" s="73">
+      <c r="AK1" s="59">
         <v>34</v>
       </c>
-      <c r="AL1" s="73">
+      <c r="AL1" s="59">
         <v>35</v>
       </c>
-      <c r="AM1" s="74">
+      <c r="AM1" s="60">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="84" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:39" s="66" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="76"/>
+      <c r="B2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="79"/>
     </row>
-    <row r="3" spans="1:39" s="85" customFormat="1">
+    <row r="3" spans="1:39" s="67" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="29">
+      <c r="C3" s="89"/>
+      <c r="D3" s="24">
         <v>500</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>800</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>600</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>500</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>400</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>400</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>400</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>400</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <v>400</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <v>500</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="18">
         <v>600</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="25">
         <v>500</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="24">
         <v>200</v>
       </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
-        <v>0</v>
-      </c>
-      <c r="S3" s="20">
-        <v>0</v>
-      </c>
-      <c r="T3" s="20">
-        <v>0</v>
-      </c>
-      <c r="U3" s="20">
-        <v>0</v>
-      </c>
-      <c r="V3" s="20">
-        <v>0</v>
-      </c>
-      <c r="W3" s="20">
-        <v>0</v>
-      </c>
-      <c r="X3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="30">
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="85" customFormat="1">
+    <row r="4" spans="1:39" s="67" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C4" s="89"/>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
         <v>800</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>1800</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>2000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>2000</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>2000</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <v>1600</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>1200</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>1000</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <v>1400</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="18">
         <v>2000</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="25">
         <v>1800</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="24">
         <v>2050</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="18">
         <v>2500</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="18">
         <v>2500</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="18">
         <v>2500</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="18">
         <v>2500</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="18">
         <v>2500</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="18">
         <v>2250</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="18">
         <v>2000</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="18">
         <v>2000</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="18">
         <v>2000</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="18">
         <v>2000</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="25">
         <v>2000</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="24">
         <v>1900</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="18">
         <v>1800</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="18">
         <v>1800</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="18">
         <v>1800</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AF4" s="18">
         <v>1800</v>
       </c>
-      <c r="AG4" s="20">
+      <c r="AG4" s="18">
         <v>1800</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AH4" s="18">
         <v>1800</v>
       </c>
-      <c r="AI4" s="20">
+      <c r="AI4" s="18">
         <v>1800</v>
       </c>
-      <c r="AJ4" s="20">
+      <c r="AJ4" s="18">
         <v>1800</v>
       </c>
-      <c r="AK4" s="20">
+      <c r="AK4" s="18">
         <v>1800</v>
       </c>
-      <c r="AL4" s="20">
+      <c r="AL4" s="18">
         <v>1800</v>
       </c>
-      <c r="AM4" s="30">
+      <c r="AM4" s="25">
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="85" customFormat="1">
+    <row r="5" spans="1:39" s="67" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="C5" s="89"/>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
         <v>600</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>1200</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>1200</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>600</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
         <v>600</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <v>1200</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="18">
         <v>1400</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="25">
         <v>2000</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="24">
         <v>2450</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="18">
         <v>2500</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="18">
         <v>2500</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="18">
         <v>2500</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="18">
         <v>2500</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="18">
         <v>2500</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="18">
         <v>2750</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="18">
         <v>3000</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="18">
         <v>3000</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="18">
         <v>3000</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="18">
         <v>3000</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="25">
         <v>3000</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="24">
         <v>3600</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="18">
         <v>4200</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="18">
         <v>4200</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE5" s="18">
         <v>4200</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AF5" s="18">
         <v>4200</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="18">
         <v>4200</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AH5" s="18">
         <v>4200</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AI5" s="18">
         <v>4200</v>
       </c>
-      <c r="AJ5" s="20">
+      <c r="AJ5" s="18">
         <v>4200</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AK5" s="18">
         <v>4200</v>
       </c>
-      <c r="AL5" s="20">
+      <c r="AL5" s="18">
         <v>4200</v>
       </c>
-      <c r="AM5" s="30">
+      <c r="AM5" s="25">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="85" customFormat="1">
+    <row r="6" spans="1:39" s="67" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
+      <c r="C6" s="89"/>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
         <v>1000</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>2200</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>2000</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>800</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
         <v>1250</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="18">
         <v>2500</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="18">
         <v>2500</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="18">
         <v>2500</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="18">
         <v>2500</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="18">
         <v>2500</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="18">
         <v>2750</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="18">
         <v>3000</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="18">
         <v>3000</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="18">
         <v>3000</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="18">
         <v>3000</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="25">
         <v>3000</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="24">
         <v>3600</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="18">
         <v>4200</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="18">
         <v>4200</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="18">
         <v>4200</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF6" s="18">
         <v>4200</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AG6" s="18">
         <v>4200</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH6" s="18">
         <v>4500</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="18">
         <v>4800</v>
       </c>
-      <c r="AJ6" s="20">
+      <c r="AJ6" s="18">
         <v>4800</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AK6" s="18">
         <v>4800</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AL6" s="18">
         <v>4800</v>
       </c>
-      <c r="AM6" s="30">
+      <c r="AM6" s="25">
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="85" customFormat="1">
+    <row r="7" spans="1:39" s="67" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="89">
         <v>900</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="40"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2118,8 +2149,8 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="40"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="35"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2130,18 +2161,18 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="77"/>
+      <c r="AM7" s="61"/>
     </row>
-    <row r="8" spans="1:39" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:39" s="40" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="90">
         <f>SUM(C3:C7)</f>
         <v>900</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>500</v>
       </c>
@@ -2185,11 +2216,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="27">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="26">
         <f t="shared" si="0"/>
         <v>5950</v>
       </c>
@@ -2233,11 +2264,11 @@
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AA8" s="32">
+      <c r="AA8" s="27">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AB8" s="31">
+      <c r="AB8" s="26">
         <f t="shared" si="0"/>
         <v>9100</v>
       </c>
@@ -2281,71 +2312,71 @@
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="AM8" s="32">
+      <c r="AM8" s="27">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:39" s="69" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="78" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="78" t="s">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="79"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="76"/>
     </row>
-    <row r="10" spans="1:39" s="88" customFormat="1">
+    <row r="10" spans="1:39" s="70" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="33">
+      <c r="C10" s="92"/>
+      <c r="D10" s="28">
         <v>108</v>
       </c>
       <c r="E10" s="6">
@@ -2378,89 +2409,89 @@
       <c r="N10" s="6">
         <v>108</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="29">
         <v>108</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="63">
         <v>240</v>
       </c>
-      <c r="Q10" s="92">
+      <c r="Q10" s="73">
         <v>240</v>
       </c>
-      <c r="R10" s="92">
+      <c r="R10" s="73">
         <v>240</v>
       </c>
-      <c r="S10" s="92">
+      <c r="S10" s="73">
         <v>240</v>
       </c>
-      <c r="T10" s="92">
+      <c r="T10" s="73">
         <v>240</v>
       </c>
-      <c r="U10" s="92">
+      <c r="U10" s="73">
         <v>240</v>
       </c>
-      <c r="V10" s="92">
+      <c r="V10" s="73">
         <v>240</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="73">
         <v>240</v>
       </c>
-      <c r="X10" s="92">
+      <c r="X10" s="73">
         <v>240</v>
       </c>
-      <c r="Y10" s="92">
+      <c r="Y10" s="73">
         <v>240</v>
       </c>
-      <c r="Z10" s="92">
+      <c r="Z10" s="73">
         <v>240</v>
       </c>
-      <c r="AA10" s="89">
+      <c r="AA10" s="71">
         <v>240</v>
       </c>
-      <c r="AB10" s="81">
+      <c r="AB10" s="63">
         <v>240</v>
       </c>
-      <c r="AC10" s="92">
+      <c r="AC10" s="73">
         <v>240</v>
       </c>
-      <c r="AD10" s="92">
+      <c r="AD10" s="73">
         <v>240</v>
       </c>
-      <c r="AE10" s="92">
+      <c r="AE10" s="73">
         <v>240</v>
       </c>
-      <c r="AF10" s="92">
+      <c r="AF10" s="73">
         <v>240</v>
       </c>
-      <c r="AG10" s="92">
+      <c r="AG10" s="73">
         <v>240</v>
       </c>
-      <c r="AH10" s="92">
+      <c r="AH10" s="73">
         <v>240</v>
       </c>
-      <c r="AI10" s="92">
+      <c r="AI10" s="73">
         <v>240</v>
       </c>
-      <c r="AJ10" s="92">
+      <c r="AJ10" s="73">
         <v>240</v>
       </c>
-      <c r="AK10" s="92">
+      <c r="AK10" s="73">
         <v>240</v>
       </c>
-      <c r="AL10" s="92">
+      <c r="AL10" s="73">
         <v>240</v>
       </c>
-      <c r="AM10" s="89">
+      <c r="AM10" s="71">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="88" customFormat="1">
+    <row r="11" spans="1:39" s="70" customFormat="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="33">
+      <c r="C11" s="92"/>
+      <c r="D11" s="28">
         <v>65</v>
       </c>
       <c r="E11" s="6">
@@ -2493,10 +2524,10 @@
       <c r="N11" s="6">
         <v>65</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="29">
         <v>65</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="28">
         <v>0</v>
       </c>
       <c r="Q11" s="6">
@@ -2529,10 +2560,10 @@
       <c r="Z11" s="6">
         <v>0</v>
       </c>
-      <c r="AA11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="33">
+      <c r="AA11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="28">
         <v>0</v>
       </c>
       <c r="AC11" s="6">
@@ -2565,21 +2596,21 @@
       <c r="AL11" s="6">
         <v>0</v>
       </c>
-      <c r="AM11" s="34">
+      <c r="AM11" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="88" customFormat="1">
+    <row r="12" spans="1:39" s="70" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="92">
         <v>60.8</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="28">
         <v>60.8</v>
       </c>
       <c r="E12" s="6">
@@ -2612,10 +2643,10 @@
       <c r="N12" s="6">
         <v>60.8</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="29">
         <v>60.8</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="28">
         <v>60.8</v>
       </c>
       <c r="Q12" s="6">
@@ -2648,10 +2679,10 @@
       <c r="Z12" s="6">
         <v>60.8</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12" s="29">
         <v>60.8</v>
       </c>
-      <c r="AB12" s="33">
+      <c r="AB12" s="28">
         <v>60.8</v>
       </c>
       <c r="AC12" s="6">
@@ -2684,19 +2715,19 @@
       <c r="AL12" s="6">
         <v>60.8</v>
       </c>
-      <c r="AM12" s="34">
+      <c r="AM12" s="29">
         <v>60.8</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="88" customFormat="1">
+    <row r="13" spans="1:39" s="70" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="33">
+      <c r="C13" s="92"/>
+      <c r="D13" s="28">
         <v>17</v>
       </c>
       <c r="E13" s="6">
@@ -2729,10 +2760,10 @@
       <c r="N13" s="6">
         <v>17</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="29">
         <v>17</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="28">
         <v>34</v>
       </c>
       <c r="Q13" s="6">
@@ -2765,10 +2796,10 @@
       <c r="Z13" s="6">
         <v>34</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="29">
         <v>34</v>
       </c>
-      <c r="AB13" s="33">
+      <c r="AB13" s="28">
         <v>34</v>
       </c>
       <c r="AC13" s="6">
@@ -2801,21 +2832,21 @@
       <c r="AL13" s="6">
         <v>34</v>
       </c>
-      <c r="AM13" s="34">
+      <c r="AM13" s="29">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="88" customFormat="1">
+    <row r="14" spans="1:39" s="70" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="92">
         <v>7</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2826,8 +2857,8 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="42"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -2838,8 +2869,8 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="42"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="37"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
@@ -2850,17 +2881,17 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="80"/>
+      <c r="AM14" s="62"/>
     </row>
-    <row r="15" spans="1:39" s="88" customFormat="1">
+    <row r="15" spans="1:39" s="70" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33">
+      <c r="C15" s="92"/>
+      <c r="D15" s="28">
         <f>SUM((46.88*3)+6)</f>
         <v>146.64000000000001</v>
       </c>
@@ -2904,11 +2935,11 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="29">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="28">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
@@ -2952,11 +2983,11 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="29">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AB15" s="33">
+      <c r="AB15" s="28">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
@@ -3000,20 +3031,20 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="29">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="88" customFormat="1">
+    <row r="16" spans="1:39" s="70" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="33">
+      <c r="C16" s="92"/>
+      <c r="D16" s="28">
         <v>0</v>
       </c>
       <c r="E16" s="6">
@@ -3046,10 +3077,10 @@
       <c r="N16" s="6">
         <v>9.9</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="29">
         <v>9.9</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="28">
         <v>9.9</v>
       </c>
       <c r="Q16" s="6">
@@ -3082,10 +3113,10 @@
       <c r="Z16" s="6">
         <v>9.9</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16" s="29">
         <v>9.9</v>
       </c>
-      <c r="AB16" s="33">
+      <c r="AB16" s="28">
         <v>9.9</v>
       </c>
       <c r="AC16" s="6">
@@ -3118,21 +3149,21 @@
       <c r="AL16" s="6">
         <v>9.9</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="29">
         <v>9.9</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="88" customFormat="1">
+    <row r="17" spans="1:39" s="70" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="92">
         <v>11.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="28">
         <v>11.5</v>
       </c>
       <c r="E17" s="6">
@@ -3165,10 +3196,10 @@
       <c r="N17" s="6">
         <v>11.5</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="29">
         <v>11.5</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="28">
         <v>22.5</v>
       </c>
       <c r="Q17" s="6">
@@ -3201,10 +3232,10 @@
       <c r="Z17" s="6">
         <v>22.5</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17" s="29">
         <v>22.5</v>
       </c>
-      <c r="AB17" s="33">
+      <c r="AB17" s="28">
         <v>22.5</v>
       </c>
       <c r="AC17" s="6">
@@ -3237,17 +3268,17 @@
       <c r="AL17" s="6">
         <v>22.5</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AM17" s="29">
         <v>22.5</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="88" customFormat="1">
+    <row r="18" spans="1:39" s="70" customFormat="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3258,8 +3289,8 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="33">
+      <c r="O18" s="29"/>
+      <c r="P18" s="28">
         <v>1000</v>
       </c>
       <c r="Q18" s="6"/>
@@ -3274,8 +3305,8 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="33">
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="28">
         <v>10000</v>
       </c>
       <c r="AC18" s="6"/>
@@ -3290,19 +3321,19 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="34"/>
+      <c r="AM18" s="29"/>
     </row>
-    <row r="19" spans="1:39" s="88" customFormat="1">
+    <row r="19" spans="1:39" s="70" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="92">
         <v>50</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3313,8 +3344,8 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="42"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -3325,8 +3356,8 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="42"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="37"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -3337,17 +3368,17 @@
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="80"/>
+      <c r="AM19" s="62"/>
     </row>
-    <row r="20" spans="1:39" s="88" customFormat="1">
+    <row r="20" spans="1:39" s="70" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="33">
+      <c r="C20" s="92"/>
+      <c r="D20" s="28">
         <v>25</v>
       </c>
       <c r="E20" s="6">
@@ -3380,10 +3411,10 @@
       <c r="N20" s="6">
         <v>25</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="29">
         <v>25</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="28">
         <v>25</v>
       </c>
       <c r="Q20" s="6">
@@ -3416,10 +3447,10 @@
       <c r="Z20" s="6">
         <v>25</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="AA20" s="29">
         <v>25</v>
       </c>
-      <c r="AB20" s="33">
+      <c r="AB20" s="28">
         <v>25</v>
       </c>
       <c r="AC20" s="6">
@@ -3452,21 +3483,21 @@
       <c r="AL20" s="6">
         <v>25</v>
       </c>
-      <c r="AM20" s="34">
+      <c r="AM20" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="88" customFormat="1">
+    <row r="21" spans="1:39" s="70" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="92">
         <v>10</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3477,8 +3508,8 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="42"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -3489,8 +3520,8 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="42"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="37"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -3501,17 +3532,17 @@
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="80"/>
+      <c r="AM21" s="62"/>
     </row>
-    <row r="22" spans="1:39" s="88" customFormat="1">
+    <row r="22" spans="1:39" s="70" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="33">
+      <c r="C22" s="92"/>
+      <c r="D22" s="28">
         <v>48.79</v>
       </c>
       <c r="E22" s="6">
@@ -3544,10 +3575,10 @@
       <c r="N22" s="6">
         <v>48.79</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="29">
         <v>48.79</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="28">
         <v>48.79</v>
       </c>
       <c r="Q22" s="6">
@@ -3580,10 +3611,10 @@
       <c r="Z22" s="6">
         <v>48.79</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="AA22" s="29">
         <v>48.79</v>
       </c>
-      <c r="AB22" s="33">
+      <c r="AB22" s="28">
         <v>48.79</v>
       </c>
       <c r="AC22" s="6">
@@ -3616,158 +3647,160 @@
       <c r="AL22" s="6">
         <v>48.79</v>
       </c>
-      <c r="AM22" s="34">
+      <c r="AM22" s="29">
         <v>48.79</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="88" customFormat="1">
+    <row r="23" spans="1:39" s="70" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="34">
+      <c r="C23" s="92"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="71">
         <v>415</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="80">
+      <c r="P23" s="63"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="71">
         <v>415</v>
       </c>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="89">
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="71">
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="88" customFormat="1">
+    <row r="24" spans="1:39" s="70" customFormat="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="93">
         <v>500</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="80"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="71"/>
     </row>
-    <row r="25" spans="1:39" s="88" customFormat="1">
+    <row r="25" spans="1:39" s="70" customFormat="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="34">
-        <v>900</v>
-      </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="80"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="71">
+        <v>450</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="71">
+        <v>450</v>
+      </c>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="71"/>
     </row>
-    <row r="26" spans="1:39" s="88" customFormat="1">
+    <row r="26" spans="1:39" s="70" customFormat="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="33">
+      <c r="C26" s="92"/>
+      <c r="D26" s="28">
         <v>0</v>
       </c>
       <c r="E26" s="6">
@@ -3800,92 +3833,92 @@
       <c r="N26" s="6">
         <v>2700</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="29">
         <v>2700</v>
       </c>
-      <c r="P26" s="81">
+      <c r="P26" s="63">
         <v>4500</v>
       </c>
-      <c r="Q26" s="92">
+      <c r="Q26" s="73">
         <v>4500</v>
       </c>
-      <c r="R26" s="92">
+      <c r="R26" s="73">
         <v>4500</v>
       </c>
-      <c r="S26" s="92">
+      <c r="S26" s="73">
         <v>4500</v>
       </c>
-      <c r="T26" s="92">
+      <c r="T26" s="73">
         <v>4500</v>
       </c>
-      <c r="U26" s="92">
+      <c r="U26" s="73">
         <v>4500</v>
       </c>
-      <c r="V26" s="92">
+      <c r="V26" s="73">
         <v>4500</v>
       </c>
-      <c r="W26" s="92">
+      <c r="W26" s="73">
         <v>4500</v>
       </c>
-      <c r="X26" s="92">
+      <c r="X26" s="73">
         <v>4500</v>
       </c>
-      <c r="Y26" s="92">
+      <c r="Y26" s="73">
         <v>4500</v>
       </c>
-      <c r="Z26" s="92">
+      <c r="Z26" s="73">
         <v>4500</v>
       </c>
-      <c r="AA26" s="89">
+      <c r="AA26" s="71">
         <v>4500</v>
       </c>
-      <c r="AB26" s="92">
+      <c r="AB26" s="73">
         <v>9500</v>
       </c>
-      <c r="AC26" s="92">
+      <c r="AC26" s="73">
         <v>9500</v>
       </c>
-      <c r="AD26" s="92">
+      <c r="AD26" s="73">
         <v>9500</v>
       </c>
-      <c r="AE26" s="92">
+      <c r="AE26" s="73">
         <v>9500</v>
       </c>
-      <c r="AF26" s="92">
+      <c r="AF26" s="73">
         <v>9500</v>
       </c>
-      <c r="AG26" s="92">
+      <c r="AG26" s="73">
         <v>9500</v>
       </c>
-      <c r="AH26" s="92">
+      <c r="AH26" s="73">
         <v>9500</v>
       </c>
-      <c r="AI26" s="92">
+      <c r="AI26" s="73">
         <v>9500</v>
       </c>
-      <c r="AJ26" s="92">
+      <c r="AJ26" s="73">
         <v>9500</v>
       </c>
-      <c r="AK26" s="92">
+      <c r="AK26" s="73">
         <v>9500</v>
       </c>
-      <c r="AL26" s="92">
+      <c r="AL26" s="73">
         <v>9500</v>
       </c>
-      <c r="AM26" s="92">
+      <c r="AM26" s="73">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="90" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:39" s="72" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="90">
         <f t="shared" ref="C27:O27" si="2">SUM(C9:C26)</f>
         <v>639.29999999999995</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="26">
         <f t="shared" si="2"/>
         <v>482.73000000000008</v>
       </c>
@@ -3929,11 +3962,11 @@
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="27">
         <f t="shared" si="2"/>
-        <v>4507.63</v>
-      </c>
-      <c r="P27" s="31">
+        <v>4057.63</v>
+      </c>
+      <c r="P27" s="26">
         <f t="shared" ref="P27" si="3">SUM(P9:P26)</f>
         <v>6087.63</v>
       </c>
@@ -3977,11 +4010,11 @@
         <f t="shared" ref="Z27" si="13">SUM(Z9:Z26)</f>
         <v>5087.63</v>
       </c>
-      <c r="AA27" s="32">
+      <c r="AA27" s="27">
         <f t="shared" ref="AA27" si="14">SUM(AA9:AA26)</f>
-        <v>5502.63</v>
-      </c>
-      <c r="AB27" s="31">
+        <v>5952.63</v>
+      </c>
+      <c r="AB27" s="26">
         <f t="shared" ref="AB27" si="15">SUM(AB9:AB26)</f>
         <v>20087.63</v>
       </c>
@@ -4025,21 +4058,21 @@
         <f t="shared" ref="AL27" si="25">SUM(AL9:AL26)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AM27" s="32">
+      <c r="AM27" s="27">
         <f t="shared" ref="AM27" si="26">SUM(AM9:AM26)</f>
         <v>10502.63</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="2"/>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="94">
         <f t="shared" ref="C28:O28" si="27">C8-C27</f>
         <v>260.70000000000005</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="30">
         <f t="shared" si="27"/>
         <v>17.269999999999925</v>
       </c>
@@ -4083,11 +4116,11 @@
         <f t="shared" si="27"/>
         <v>807.36999999999989</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="31">
         <f t="shared" si="27"/>
-        <v>-207.63000000000011</v>
-      </c>
-      <c r="P28" s="35">
+        <v>242.36999999999989</v>
+      </c>
+      <c r="P28" s="30">
         <f t="shared" ref="P28" si="28">P8-P27</f>
         <v>-137.63000000000011</v>
       </c>
@@ -4131,11 +4164,11 @@
         <f t="shared" ref="Z28" si="38">Z8-Z27</f>
         <v>2912.37</v>
       </c>
-      <c r="AA28" s="36">
+      <c r="AA28" s="31">
         <f t="shared" ref="AA28" si="39">AA8-AA27</f>
-        <v>2497.37</v>
-      </c>
-      <c r="AB28" s="35">
+        <v>2047.37</v>
+      </c>
+      <c r="AB28" s="30">
         <f t="shared" ref="AB28" si="40">AB8-AB27</f>
         <v>-10987.630000000001</v>
       </c>
@@ -4179,161 +4212,161 @@
         <f t="shared" ref="AL28" si="50">AL8-AL27</f>
         <v>712.3700000000008</v>
       </c>
-      <c r="AM28" s="36">
+      <c r="AM28" s="31">
         <f t="shared" ref="AM28" si="51">AM8-AM27</f>
         <v>297.3700000000008</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="4"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="95">
         <f>C28</f>
         <v>260.70000000000005</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="32">
         <f t="shared" ref="D29:O29" si="52">C29+D28</f>
         <v>277.96999999999997</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="33">
         <f t="shared" si="52"/>
         <v>1385.34</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="33">
         <f t="shared" si="52"/>
         <v>592.70999999999981</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="33">
         <f t="shared" si="52"/>
         <v>500.0799999999997</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="33">
         <f t="shared" si="52"/>
         <v>907.44999999999959</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="33">
         <f t="shared" si="52"/>
         <v>1314.8199999999995</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="33">
         <f t="shared" si="52"/>
         <v>1722.1899999999994</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="33">
         <f t="shared" si="52"/>
         <v>2329.5599999999995</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="33">
         <f t="shared" si="52"/>
         <v>3136.9299999999994</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="33">
         <f t="shared" si="52"/>
         <v>3844.2999999999993</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="33">
         <f t="shared" si="52"/>
         <v>4651.6699999999992</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="34">
         <f t="shared" si="52"/>
-        <v>4444.0399999999991</v>
-      </c>
-      <c r="P29" s="37">
+        <v>4894.0399999999991</v>
+      </c>
+      <c r="P29" s="32">
         <f t="shared" ref="P29" si="53">O29+P28</f>
-        <v>4306.4099999999989</v>
-      </c>
-      <c r="Q29" s="38">
+        <v>4756.4099999999989</v>
+      </c>
+      <c r="Q29" s="33">
         <f t="shared" ref="Q29" si="54">P29+Q28</f>
-        <v>6718.7799999999988</v>
-      </c>
-      <c r="R29" s="38">
+        <v>7168.7799999999988</v>
+      </c>
+      <c r="R29" s="33">
         <f t="shared" ref="R29" si="55">Q29+R28</f>
-        <v>9131.1499999999978</v>
-      </c>
-      <c r="S29" s="38">
+        <v>9581.1499999999978</v>
+      </c>
+      <c r="S29" s="33">
         <f t="shared" ref="S29" si="56">R29+S28</f>
-        <v>11543.519999999997</v>
-      </c>
-      <c r="T29" s="38">
+        <v>11993.519999999997</v>
+      </c>
+      <c r="T29" s="33">
         <f t="shared" ref="T29" si="57">S29+T28</f>
-        <v>13955.889999999996</v>
-      </c>
-      <c r="U29" s="38">
+        <v>14405.889999999996</v>
+      </c>
+      <c r="U29" s="33">
         <f t="shared" ref="U29" si="58">T29+U28</f>
-        <v>16368.259999999995</v>
-      </c>
-      <c r="V29" s="38">
+        <v>16818.259999999995</v>
+      </c>
+      <c r="V29" s="33">
         <f t="shared" ref="V29" si="59">U29+V28</f>
-        <v>14030.629999999994</v>
-      </c>
-      <c r="W29" s="38">
+        <v>14480.629999999994</v>
+      </c>
+      <c r="W29" s="33">
         <f t="shared" ref="W29" si="60">V29+W28</f>
-        <v>16942.999999999993</v>
-      </c>
-      <c r="X29" s="38">
+        <v>17392.999999999993</v>
+      </c>
+      <c r="X29" s="33">
         <f t="shared" ref="X29" si="61">W29+X28</f>
-        <v>19855.369999999992</v>
-      </c>
-      <c r="Y29" s="38">
+        <v>20305.369999999992</v>
+      </c>
+      <c r="Y29" s="33">
         <f t="shared" ref="Y29" si="62">X29+Y28</f>
-        <v>22767.739999999991</v>
-      </c>
-      <c r="Z29" s="38">
+        <v>23217.739999999991</v>
+      </c>
+      <c r="Z29" s="33">
         <f t="shared" ref="Z29" si="63">Y29+Z28</f>
-        <v>25680.10999999999</v>
-      </c>
-      <c r="AA29" s="39">
+        <v>26130.10999999999</v>
+      </c>
+      <c r="AA29" s="34">
         <f t="shared" ref="AA29" si="64">Z29+AA28</f>
         <v>28177.479999999989</v>
       </c>
-      <c r="AB29" s="37">
+      <c r="AB29" s="32">
         <f t="shared" ref="AB29" si="65">AA29+AB28</f>
         <v>17189.849999999988</v>
       </c>
-      <c r="AC29" s="38">
+      <c r="AC29" s="33">
         <f t="shared" ref="AC29" si="66">AB29+AC28</f>
         <v>17302.219999999987</v>
       </c>
-      <c r="AD29" s="38">
+      <c r="AD29" s="33">
         <f t="shared" ref="AD29" si="67">AC29+AD28</f>
         <v>17414.589999999989</v>
       </c>
-      <c r="AE29" s="38">
+      <c r="AE29" s="33">
         <f t="shared" ref="AE29" si="68">AD29+AE28</f>
         <v>17526.959999999992</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="33">
         <f t="shared" ref="AF29" si="69">AE29+AF28</f>
         <v>17639.329999999994</v>
       </c>
-      <c r="AG29" s="38">
+      <c r="AG29" s="33">
         <f t="shared" ref="AG29" si="70">AF29+AG28</f>
         <v>17751.699999999997</v>
       </c>
-      <c r="AH29" s="38">
+      <c r="AH29" s="33">
         <f t="shared" ref="AH29" si="71">AG29+AH28</f>
         <v>8164.0699999999961</v>
       </c>
-      <c r="AI29" s="38">
+      <c r="AI29" s="33">
         <f t="shared" ref="AI29" si="72">AH29+AI28</f>
         <v>8876.4399999999969</v>
       </c>
-      <c r="AJ29" s="38">
+      <c r="AJ29" s="33">
         <f t="shared" ref="AJ29" si="73">AI29+AJ28</f>
         <v>9588.8099999999977</v>
       </c>
-      <c r="AK29" s="38">
+      <c r="AK29" s="33">
         <f t="shared" ref="AK29" si="74">AJ29+AK28</f>
         <v>10301.179999999998</v>
       </c>
-      <c r="AL29" s="38">
+      <c r="AL29" s="33">
         <f t="shared" ref="AL29" si="75">AK29+AL28</f>
         <v>11013.55</v>
       </c>
-      <c r="AM29" s="39">
+      <c r="AM29" s="34">
         <f t="shared" ref="AM29" si="76">AL29+AM28</f>
         <v>11310.92</v>
       </c>
@@ -4377,7 +4410,7 @@
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29:AK32"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4498,160 +4531,160 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="28"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="82"/>
     </row>
     <row r="3" spans="1:37" ht="15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="41">
         <v>200</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>200</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>200</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>200</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>200</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>200</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>200</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>200</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>200</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>200</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>200</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="42">
         <v>200</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="41">
         <v>200</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>200</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>200</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>200</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>200</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="20">
         <v>200</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="20">
         <v>200</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="20">
         <v>200</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="20">
         <v>200</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="20">
         <v>200</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="20">
         <v>200</v>
       </c>
-      <c r="Y3" s="47">
+      <c r="Y3" s="42">
         <v>200</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3" s="41">
         <v>200</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="20">
         <v>200</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="20">
         <v>200</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="20">
         <v>200</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="20">
         <v>200</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="20">
         <v>200</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="20">
         <v>200</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="20">
         <v>200</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="20">
         <v>200</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="20">
         <v>200</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AJ3" s="20">
         <v>200</v>
       </c>
-      <c r="AK3" s="47">
+      <c r="AK3" s="42">
         <v>200</v>
       </c>
     </row>
@@ -4659,7 +4692,7 @@
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="43">
         <v>5</v>
       </c>
       <c r="C4" s="13">
@@ -4692,10 +4725,10 @@
       <c r="L4" s="13">
         <v>3</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="44">
         <v>2</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="52">
         <v>0</v>
       </c>
       <c r="O4" s="12">
@@ -4728,10 +4761,10 @@
       <c r="X4" s="12">
         <v>0</v>
       </c>
-      <c r="Y4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="57">
+      <c r="Y4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="52">
         <v>0</v>
       </c>
       <c r="AA4" s="12">
@@ -4764,7 +4797,7 @@
       <c r="AJ4" s="12">
         <v>0</v>
       </c>
-      <c r="AK4" s="58">
+      <c r="AK4" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4772,7 +4805,7 @@
       <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="43">
         <f>SUM(B3*B4)</f>
         <v>1000</v>
       </c>
@@ -4816,11 +4849,11 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="44">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4864,11 +4897,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="49">
+      <c r="Y5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="48">
+      <c r="Z5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4912,7 +4945,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="49">
+      <c r="AK5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4921,7 +4954,7 @@
       <c r="A6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="43">
         <f>SUM(B5/2)</f>
         <v>500</v>
       </c>
@@ -4965,11 +4998,11 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="44">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="43">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -5013,11 +5046,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="49">
+      <c r="Y6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="48">
+      <c r="Z6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5061,16 +5094,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="49">
+      <c r="AK6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="45">
         <v>400</v>
       </c>
       <c r="C7" s="15">
@@ -5103,10 +5136,10 @@
       <c r="L7" s="15">
         <v>400</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="46">
         <v>400</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="45">
         <v>500</v>
       </c>
       <c r="O7" s="15">
@@ -5139,10 +5172,10 @@
       <c r="X7" s="15">
         <v>500</v>
       </c>
-      <c r="Y7" s="51">
+      <c r="Y7" s="46">
         <v>500</v>
       </c>
-      <c r="Z7" s="50">
+      <c r="Z7" s="45">
         <v>600</v>
       </c>
       <c r="AA7" s="15">
@@ -5175,7 +5208,7 @@
       <c r="AJ7" s="15">
         <v>600</v>
       </c>
-      <c r="AK7" s="51">
+      <c r="AK7" s="46">
         <v>600</v>
       </c>
     </row>
@@ -5183,7 +5216,7 @@
       <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="45">
         <v>0</v>
       </c>
       <c r="C8" s="15">
@@ -5216,10 +5249,10 @@
       <c r="L8" s="15">
         <v>5</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="46">
         <v>4</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="54">
         <v>5</v>
       </c>
       <c r="O8" s="14">
@@ -5252,10 +5285,10 @@
       <c r="X8" s="14">
         <v>4</v>
       </c>
-      <c r="Y8" s="60">
+      <c r="Y8" s="55">
         <v>4</v>
       </c>
-      <c r="Z8" s="59">
+      <c r="Z8" s="54">
         <v>3</v>
       </c>
       <c r="AA8" s="14">
@@ -5288,7 +5321,7 @@
       <c r="AJ8" s="14">
         <v>3</v>
       </c>
-      <c r="AK8" s="60">
+      <c r="AK8" s="55">
         <v>3</v>
       </c>
     </row>
@@ -5296,7 +5329,7 @@
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="45">
         <v>0</v>
       </c>
       <c r="C9" s="15">
@@ -5339,11 +5372,11 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="46">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="45">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
@@ -5387,11 +5420,11 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="Y9" s="46">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="Z9" s="50">
+      <c r="Z9" s="45">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
@@ -5435,7 +5468,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="AK9" s="51">
+      <c r="AK9" s="46">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
@@ -5444,7 +5477,7 @@
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="45">
         <f>SUM(B8*300)</f>
         <v>0</v>
       </c>
@@ -5488,11 +5521,11 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="46">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="45">
         <f t="shared" si="3"/>
         <v>2050</v>
       </c>
@@ -5536,11 +5569,11 @@
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Y10" s="51">
+      <c r="Y10" s="46">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z10" s="45">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
@@ -5584,156 +5617,156 @@
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="AK10" s="51">
+      <c r="AK10" s="46">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="43">
         <f t="shared" ref="B11:M11" si="4">SUM(B7)</f>
         <v>400</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="43">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="43">
         <f>SUM(N7)</f>
         <v>500</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="43">
         <f t="shared" ref="O11:AK11" si="5">SUM(O7)</f>
         <v>500</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="V11" s="48">
+      <c r="V11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="W11" s="48">
+      <c r="W11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="Z11" s="48">
+      <c r="Z11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AA11" s="48">
+      <c r="AA11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AB11" s="48">
+      <c r="AB11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AC11" s="48">
+      <c r="AC11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AD11" s="48">
+      <c r="AD11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AE11" s="48">
+      <c r="AE11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AF11" s="48">
+      <c r="AF11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AG11" s="48">
+      <c r="AG11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AH11" s="48">
+      <c r="AH11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AI11" s="48">
+      <c r="AI11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AJ11" s="48">
+      <c r="AJ11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="AK11" s="48">
+      <c r="AK11" s="43">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
@@ -5742,7 +5775,7 @@
       <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="43">
         <v>0</v>
       </c>
       <c r="C12" s="13">
@@ -5775,10 +5808,10 @@
       <c r="L12" s="13">
         <v>4</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="44">
         <v>6</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="52">
         <v>5</v>
       </c>
       <c r="O12" s="12">
@@ -5811,10 +5844,10 @@
       <c r="X12" s="12">
         <v>6</v>
       </c>
-      <c r="Y12" s="58">
+      <c r="Y12" s="53">
         <v>6</v>
       </c>
-      <c r="Z12" s="57">
+      <c r="Z12" s="52">
         <v>7</v>
       </c>
       <c r="AA12" s="12">
@@ -5847,7 +5880,7 @@
       <c r="AJ12" s="12">
         <v>7</v>
       </c>
-      <c r="AK12" s="58">
+      <c r="AK12" s="53">
         <v>7</v>
       </c>
     </row>
@@ -5855,7 +5888,7 @@
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="43">
         <v>0</v>
       </c>
       <c r="C13" s="13">
@@ -5898,11 +5931,11 @@
         <f t="shared" si="6"/>
         <v>1600</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="44">
         <f t="shared" si="6"/>
         <v>2400</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="43">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
@@ -5946,11 +5979,11 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="Y13" s="49">
+      <c r="Y13" s="44">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="Z13" s="48">
+      <c r="Z13" s="43">
         <f t="shared" si="6"/>
         <v>4200</v>
       </c>
@@ -5994,7 +6027,7 @@
         <f t="shared" si="6"/>
         <v>4200</v>
       </c>
-      <c r="AK13" s="49">
+      <c r="AK13" s="44">
         <f t="shared" si="6"/>
         <v>4200</v>
       </c>
@@ -6003,7 +6036,7 @@
       <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="43">
         <f>SUM(300*B12)</f>
         <v>0</v>
       </c>
@@ -6047,11 +6080,11 @@
         <f t="shared" si="7"/>
         <v>1400</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="44">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="43">
         <f t="shared" si="7"/>
         <v>2450</v>
       </c>
@@ -6095,11 +6128,11 @@
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="Y14" s="49">
+      <c r="Y14" s="44">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="Z14" s="48">
+      <c r="Z14" s="43">
         <f t="shared" si="7"/>
         <v>3600</v>
       </c>
@@ -6143,156 +6176,156 @@
         <f t="shared" si="7"/>
         <v>4200</v>
       </c>
-      <c r="AK14" s="49">
+      <c r="AK14" s="44">
         <f t="shared" si="7"/>
         <v>4200</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="45">
         <f t="shared" ref="B15:M15" si="8">SUM(B7)</f>
         <v>400</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="45">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="45">
         <f>SUM(N7)</f>
         <v>500</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="45">
         <f t="shared" ref="O15:AK15" si="9">SUM(O7)</f>
         <v>500</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="S15" s="50">
+      <c r="S15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="U15" s="50">
+      <c r="U15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="X15" s="50">
+      <c r="X15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="Y15" s="50">
+      <c r="Y15" s="45">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="Z15" s="50">
+      <c r="Z15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AA15" s="50">
+      <c r="AA15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AB15" s="50">
+      <c r="AB15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AC15" s="50">
+      <c r="AC15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AD15" s="50">
+      <c r="AD15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AE15" s="50">
+      <c r="AE15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AF15" s="50">
+      <c r="AF15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AG15" s="50">
+      <c r="AG15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AH15" s="50">
+      <c r="AH15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AJ15" s="50">
+      <c r="AJ15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="AK15" s="50">
+      <c r="AK15" s="45">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
@@ -6301,7 +6334,7 @@
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="45">
         <v>0</v>
       </c>
       <c r="C16" s="15">
@@ -6334,10 +6367,10 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="51">
-        <v>0</v>
-      </c>
-      <c r="N16" s="59">
+      <c r="M16" s="46">
+        <v>0</v>
+      </c>
+      <c r="N16" s="54">
         <v>5</v>
       </c>
       <c r="O16" s="14">
@@ -6370,10 +6403,10 @@
       <c r="X16" s="14">
         <v>6</v>
       </c>
-      <c r="Y16" s="60">
+      <c r="Y16" s="55">
         <v>6</v>
       </c>
-      <c r="Z16" s="59">
+      <c r="Z16" s="54">
         <v>7</v>
       </c>
       <c r="AA16" s="14">
@@ -6406,7 +6439,7 @@
       <c r="AJ16" s="14">
         <v>8</v>
       </c>
-      <c r="AK16" s="60">
+      <c r="AK16" s="55">
         <v>8</v>
       </c>
     </row>
@@ -6414,7 +6447,7 @@
       <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="45">
         <v>0</v>
       </c>
       <c r="C17" s="15">
@@ -6457,11 +6490,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="45">
         <f t="shared" si="10"/>
         <v>2500</v>
       </c>
@@ -6505,11 +6538,11 @@
         <f t="shared" si="10"/>
         <v>3000</v>
       </c>
-      <c r="Y17" s="51">
+      <c r="Y17" s="46">
         <f t="shared" si="10"/>
         <v>3000</v>
       </c>
-      <c r="Z17" s="50">
+      <c r="Z17" s="45">
         <f t="shared" si="10"/>
         <v>4200</v>
       </c>
@@ -6553,7 +6586,7 @@
         <f t="shared" si="10"/>
         <v>4800</v>
       </c>
-      <c r="AK17" s="51">
+      <c r="AK17" s="46">
         <f t="shared" si="10"/>
         <v>4800</v>
       </c>
@@ -6562,7 +6595,7 @@
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="45">
         <f>SUM(300*B16)</f>
         <v>0</v>
       </c>
@@ -6606,11 +6639,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="45">
         <f t="shared" si="11"/>
         <v>1250</v>
       </c>
@@ -6654,11 +6687,11 @@
         <f t="shared" si="11"/>
         <v>3000</v>
       </c>
-      <c r="Y18" s="51">
+      <c r="Y18" s="46">
         <f t="shared" si="11"/>
         <v>3000</v>
       </c>
-      <c r="Z18" s="50">
+      <c r="Z18" s="45">
         <f t="shared" si="11"/>
         <v>3600</v>
       </c>
@@ -6702,7 +6735,7 @@
         <f t="shared" si="11"/>
         <v>4800</v>
       </c>
-      <c r="AK18" s="51">
+      <c r="AK18" s="46">
         <f t="shared" si="11"/>
         <v>4800</v>
       </c>
@@ -6711,148 +6744,148 @@
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="52">
-        <f>SUM(B4+B8+B12+B16)</f>
+      <c r="B19" s="47">
+        <f t="shared" ref="B19:N19" si="12">SUM(B4+B8+B12+B16)</f>
         <v>5</v>
       </c>
       <c r="C19" s="11">
-        <f>SUM(C4+C8+C12+C16)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D19" s="11">
-        <f>SUM(D4+D8+D12+D16)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="E19" s="11">
-        <f>SUM(E4+E8+E12+E16)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="F19" s="11">
-        <f>SUM(F4+F8+F12+F16)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="G19" s="11">
-        <f>SUM(G4+G8+G12+G16)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H19" s="11">
-        <f>SUM(H4+H8+H12+H16)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="I19" s="11">
-        <f>SUM(I4+I8+I12+I16)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="J19" s="11">
-        <f>SUM(J4+J8+J12+J16)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="K19" s="11">
-        <f>SUM(K4+K8+K12+K16)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM(L4+L8+L12+L16)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="M19" s="53">
-        <f>SUM(M4+M8+M12+M16)</f>
+      <c r="M19" s="48">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="N19" s="52">
-        <f>SUM(N4+N8+N12+N16)</f>
-        <v>15</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" ref="O19:AK19" si="12">SUM(O4+O8+O12+O16)</f>
-        <v>15</v>
-      </c>
-      <c r="P19" s="11">
+      <c r="N19" s="47">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
+      <c r="O19" s="11">
+        <f t="shared" ref="O19:AK19" si="13">SUM(O4+O8+O12+O16)</f>
+        <v>15</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
       <c r="Q19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="Y19" s="53">
-        <f t="shared" si="12"/>
+      <c r="Y19" s="48">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="Z19" s="52">
-        <f t="shared" si="12"/>
+      <c r="Z19" s="47">
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AB19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AC19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AD19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AE19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AF19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AG19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AH19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AI19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AJ19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="AK19" s="53">
-        <f t="shared" si="12"/>
+      <c r="AK19" s="48">
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
     </row>
@@ -6860,297 +6893,297 @@
       <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="52">
-        <f>SUM(B5+B9+B13+B17)</f>
+      <c r="B20" s="47">
+        <f t="shared" ref="B20:M20" si="14">SUM(B5+B9+B13+B17)</f>
         <v>1000</v>
       </c>
       <c r="C20" s="11">
-        <f>SUM(C5+C9+C13+C17)</f>
+        <f t="shared" si="14"/>
         <v>2200</v>
       </c>
       <c r="D20" s="11">
-        <f>SUM(D5+D9+D13+D17)</f>
+        <f t="shared" si="14"/>
         <v>2600</v>
       </c>
       <c r="E20" s="11">
-        <f>SUM(E5+E9+E13+E17)</f>
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
       <c r="F20" s="11">
-        <f>SUM(F5+F9+F13+F17)</f>
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
       <c r="G20" s="11">
-        <f>SUM(G5+G9+G13+G17)</f>
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
       <c r="H20" s="11">
-        <f>SUM(H5+H9+H13+H17)</f>
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
       <c r="I20" s="11">
-        <f>SUM(I5+I9+I13+I17)</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="J20" s="11">
-        <f>SUM(J5+J9+J13+J17)</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="K20" s="11">
-        <f>SUM(K5+K9+K13+K17)</f>
+        <f t="shared" si="14"/>
         <v>3800</v>
       </c>
       <c r="L20" s="11">
-        <f>SUM(L5+L9+L13+L17)</f>
+        <f t="shared" si="14"/>
         <v>4200</v>
       </c>
-      <c r="M20" s="53">
-        <f>SUM(M5+M9+M13+M17)</f>
+      <c r="M20" s="48">
+        <f t="shared" si="14"/>
         <v>4400</v>
       </c>
-      <c r="N20" s="52">
-        <f t="shared" ref="N20:AK21" si="13">SUM(N5+N9+N13+N17)</f>
+      <c r="N20" s="47">
+        <f t="shared" ref="N20:AK21" si="15">SUM(N5+N9+N13+N17)</f>
         <v>7500</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="W20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="Y20" s="53">
-        <f t="shared" si="13"/>
+      <c r="Y20" s="48">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="Z20" s="52">
-        <f t="shared" si="13"/>
+      <c r="Z20" s="47">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AA20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AB20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AE20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="AF20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
       <c r="AG20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
       <c r="AH20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
       <c r="AI20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
       <c r="AJ20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
-      <c r="AK20" s="53">
-        <f t="shared" si="13"/>
+      <c r="AK20" s="48">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="16" customFormat="1" ht="15">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="54">
-        <f>SUM(B6+B10+B14+B18)</f>
+      <c r="B21" s="49">
+        <f t="shared" ref="B21:M21" si="16">SUM(B6+B10+B14+B18)</f>
         <v>500</v>
       </c>
-      <c r="C21" s="55">
-        <f>SUM(C6+C10+C14+C18)</f>
+      <c r="C21" s="50">
+        <f t="shared" si="16"/>
         <v>1600</v>
       </c>
-      <c r="D21" s="55">
-        <f>SUM(D6+D10+D14+D18)</f>
+      <c r="D21" s="50">
+        <f t="shared" si="16"/>
         <v>2400</v>
       </c>
-      <c r="E21" s="55">
-        <f>SUM(E6+E10+E14+E18)</f>
+      <c r="E21" s="50">
+        <f t="shared" si="16"/>
         <v>3100</v>
       </c>
-      <c r="F21" s="55">
-        <f>SUM(F6+F10+F14+F18)</f>
+      <c r="F21" s="50">
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
-      <c r="G21" s="55">
-        <f>SUM(G6+G10+G14+G18)</f>
+      <c r="G21" s="50">
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
-      <c r="H21" s="55">
-        <f>SUM(H6+H10+H14+H18)</f>
+      <c r="H21" s="50">
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
-      <c r="I21" s="55">
-        <f>SUM(I6+I10+I14+I18)</f>
+      <c r="I21" s="50">
+        <f t="shared" si="16"/>
         <v>3800</v>
       </c>
-      <c r="J21" s="55">
-        <f>SUM(J6+J10+J14+J18)</f>
+      <c r="J21" s="50">
+        <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="K21" s="55">
-        <f>SUM(K6+K10+K14+K18)</f>
+      <c r="K21" s="50">
+        <f t="shared" si="16"/>
         <v>3900</v>
       </c>
-      <c r="L21" s="55">
-        <f>SUM(L6+L10+L14+L18)</f>
+      <c r="L21" s="50">
+        <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="M21" s="56">
-        <f>SUM(M6+M10+M14+M18)</f>
+      <c r="M21" s="51">
+        <f t="shared" si="16"/>
         <v>4300</v>
       </c>
-      <c r="N21" s="54">
-        <f t="shared" si="13"/>
+      <c r="N21" s="49">
+        <f t="shared" si="15"/>
         <v>5950</v>
       </c>
-      <c r="O21" s="55">
-        <f t="shared" si="13"/>
+      <c r="O21" s="50">
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="P21" s="55">
-        <f t="shared" si="13"/>
+      <c r="P21" s="50">
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="Q21" s="55">
-        <f t="shared" si="13"/>
+      <c r="Q21" s="50">
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="R21" s="55">
-        <f t="shared" si="13"/>
+      <c r="R21" s="50">
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="S21" s="55">
-        <f t="shared" si="13"/>
+      <c r="S21" s="50">
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
-      <c r="T21" s="55">
-        <f t="shared" si="13"/>
+      <c r="T21" s="50">
+        <f t="shared" si="15"/>
         <v>7750</v>
       </c>
-      <c r="U21" s="55">
-        <f t="shared" si="13"/>
+      <c r="U21" s="50">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="V21" s="55">
-        <f t="shared" si="13"/>
+      <c r="V21" s="50">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="W21" s="55">
-        <f t="shared" si="13"/>
+      <c r="W21" s="50">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="X21" s="55">
-        <f t="shared" si="13"/>
+      <c r="X21" s="50">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="Y21" s="56">
-        <f t="shared" si="13"/>
+      <c r="Y21" s="51">
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="Z21" s="54">
-        <f t="shared" si="13"/>
+      <c r="Z21" s="49">
+        <f t="shared" si="15"/>
         <v>9100</v>
       </c>
-      <c r="AA21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AA21" s="50">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
-      <c r="AB21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AB21" s="50">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
-      <c r="AC21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AC21" s="50">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
-      <c r="AD21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AD21" s="50">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
-      <c r="AE21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AE21" s="50">
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
-      <c r="AF21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AF21" s="50">
+        <f t="shared" si="15"/>
         <v>10500</v>
       </c>
-      <c r="AG21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AG21" s="50">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
-      <c r="AH21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AH21" s="50">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
-      <c r="AI21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AI21" s="50">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
-      <c r="AJ21" s="55">
-        <f t="shared" si="13"/>
+      <c r="AJ21" s="50">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
-      <c r="AK21" s="56">
-        <f t="shared" si="13"/>
+      <c r="AK21" s="51">
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
     </row>
@@ -7815,21 +7848,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="12" t="s">

--- a/business plan/Cash Flow.xlsx
+++ b/business plan/Cash Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6700" yWindow="-24440" windowWidth="37220" windowHeight="22700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Forecast" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -634,8 +634,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -730,8 +748,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -954,6 +976,42 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="21" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="25" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,44 +1042,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="21" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="22" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="25" xfId="63" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="98">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1068,6 +1099,8 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1114,6 +1147,8 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="63" builtinId="10"/>
   </cellStyles>
@@ -1465,11 +1500,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1483,7 +1518,7 @@
     <row r="1" spans="1:39" s="64" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="58">
@@ -1602,51 +1637,51 @@
       <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="79"/>
+      <c r="C2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="91"/>
     </row>
     <row r="3" spans="1:39" s="67" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -1655,7 +1690,7 @@
       <c r="B3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="24">
         <v>500</v>
       </c>
@@ -1772,7 +1807,7 @@
       <c r="B4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -1889,7 +1924,7 @@
       <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="24">
         <v>0</v>
       </c>
@@ -2006,7 +2041,7 @@
       <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -2123,7 +2158,7 @@
       <c r="B7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="79">
         <v>900</v>
       </c>
       <c r="D7" s="24"/>
@@ -2168,7 +2203,7 @@
       <c r="B8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="80">
         <f>SUM(C3:C7)</f>
         <v>900</v>
       </c>
@@ -2322,51 +2357,51 @@
       <c r="B9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="74" t="s">
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="74" t="s">
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="76"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="88"/>
     </row>
     <row r="10" spans="1:39" s="70" customFormat="1">
       <c r="A10" s="5" t="s">
@@ -2375,7 +2410,7 @@
       <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="28">
         <v>108</v>
       </c>
@@ -2490,7 +2525,7 @@
       <c r="B11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="28">
         <v>65</v>
       </c>
@@ -2607,7 +2642,7 @@
       <c r="B12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="82">
         <v>60.8</v>
       </c>
       <c r="D12" s="28">
@@ -2726,7 +2761,7 @@
       <c r="B13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="28">
         <v>17</v>
       </c>
@@ -2843,7 +2878,7 @@
       <c r="B14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="82">
         <v>7</v>
       </c>
       <c r="D14" s="28"/>
@@ -2890,7 +2925,7 @@
       <c r="B15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="28">
         <f>SUM((46.88*3)+6)</f>
         <v>146.64000000000001</v>
@@ -3043,7 +3078,7 @@
       <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="28">
         <v>0</v>
       </c>
@@ -3160,7 +3195,7 @@
       <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="82">
         <v>11.5</v>
       </c>
       <c r="D17" s="28">
@@ -3277,7 +3312,7 @@
       <c r="B18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="28"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3288,11 +3323,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="28">
+      <c r="N18" s="96"/>
+      <c r="O18" s="98">
         <v>1000</v>
       </c>
+      <c r="P18" s="97"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -3304,19 +3339,17 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="28">
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="98">
         <v>10000</v>
       </c>
+      <c r="AB18" s="97"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="6">
-        <v>10000</v>
-      </c>
+      <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -3330,7 +3363,7 @@
       <c r="B19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="82">
         <v>50</v>
       </c>
       <c r="D19" s="28"/>
@@ -3377,7 +3410,7 @@
       <c r="B20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="28">
         <v>25</v>
       </c>
@@ -3494,7 +3527,7 @@
       <c r="B21" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="82">
         <v>10</v>
       </c>
       <c r="D21" s="28"/>
@@ -3541,7 +3574,7 @@
       <c r="B22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="28">
         <v>48.79</v>
       </c>
@@ -3658,7 +3691,7 @@
       <c r="B23" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="63"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -3707,21 +3740,21 @@
       <c r="B24" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="83">
         <v>500</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="86"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="73"/>
       <c r="R24" s="73"/>
@@ -3752,7 +3785,7 @@
       <c r="B25" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="63"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
@@ -3796,579 +3829,626 @@
     </row>
     <row r="26" spans="1:39" s="70" customFormat="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="63">
+        <f>SUM(0.4*O30)</f>
+        <v>1557.6159999999998</v>
+      </c>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="63">
+        <f>SUM(0.4*AA30)</f>
+        <v>6647.9455999999964</v>
+      </c>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="71"/>
+    </row>
+    <row r="27" spans="1:39" s="70" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="C27" s="82"/>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
         <v>2700</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>2700</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <v>2700</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>2700</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <v>2700</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <v>2700</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>2700</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M27" s="6">
         <v>2700</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N27" s="6">
         <v>2700</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O27" s="29">
         <v>2700</v>
       </c>
-      <c r="P26" s="63">
+      <c r="P27" s="63">
         <v>4500</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q27" s="73">
         <v>4500</v>
       </c>
-      <c r="R26" s="73">
+      <c r="R27" s="73">
         <v>4500</v>
       </c>
-      <c r="S26" s="73">
+      <c r="S27" s="73">
         <v>4500</v>
       </c>
-      <c r="T26" s="73">
+      <c r="T27" s="73">
         <v>4500</v>
       </c>
-      <c r="U26" s="73">
+      <c r="U27" s="73">
         <v>4500</v>
       </c>
-      <c r="V26" s="73">
+      <c r="V27" s="73">
         <v>4500</v>
       </c>
-      <c r="W26" s="73">
+      <c r="W27" s="73">
         <v>4500</v>
       </c>
-      <c r="X26" s="73">
+      <c r="X27" s="73">
         <v>4500</v>
       </c>
-      <c r="Y26" s="73">
+      <c r="Y27" s="73">
         <v>4500</v>
       </c>
-      <c r="Z26" s="73">
+      <c r="Z27" s="73">
         <v>4500</v>
       </c>
-      <c r="AA26" s="71">
+      <c r="AA27" s="71">
         <v>4500</v>
       </c>
-      <c r="AB26" s="73">
+      <c r="AB27" s="63">
         <v>9500</v>
       </c>
-      <c r="AC26" s="73">
+      <c r="AC27" s="73">
         <v>9500</v>
       </c>
-      <c r="AD26" s="73">
+      <c r="AD27" s="73">
         <v>9500</v>
       </c>
-      <c r="AE26" s="73">
+      <c r="AE27" s="73">
         <v>9500</v>
       </c>
-      <c r="AF26" s="73">
+      <c r="AF27" s="73">
         <v>9500</v>
       </c>
-      <c r="AG26" s="73">
+      <c r="AG27" s="73">
         <v>9500</v>
       </c>
-      <c r="AH26" s="73">
+      <c r="AH27" s="73">
         <v>9500</v>
       </c>
-      <c r="AI26" s="73">
+      <c r="AI27" s="73">
         <v>9500</v>
       </c>
-      <c r="AJ26" s="73">
+      <c r="AJ27" s="73">
         <v>9500</v>
       </c>
-      <c r="AK26" s="73">
+      <c r="AK27" s="73">
         <v>9500</v>
       </c>
-      <c r="AL26" s="73">
+      <c r="AL27" s="73">
         <v>9500</v>
       </c>
-      <c r="AM26" s="73">
+      <c r="AM27" s="71">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="36" t="s">
+    <row r="28" spans="1:39" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="90">
-        <f t="shared" ref="C27:O27" si="2">SUM(C9:C26)</f>
+      <c r="C28" s="80">
+        <f t="shared" ref="C28:O28" si="2">SUM(C9:C27)</f>
         <v>639.29999999999995</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D28" s="26">
         <f t="shared" si="2"/>
         <v>482.73000000000008</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <f t="shared" si="2"/>
         <v>492.63000000000005</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N28" s="8">
         <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O28" s="27">
         <f t="shared" si="2"/>
-        <v>4057.63</v>
-      </c>
-      <c r="P27" s="26">
-        <f t="shared" ref="P27" si="3">SUM(P9:P26)</f>
-        <v>6087.63</v>
-      </c>
-      <c r="Q27" s="8">
-        <f t="shared" ref="Q27" si="4">SUM(Q9:Q26)</f>
+        <v>5057.63</v>
+      </c>
+      <c r="P28" s="26">
+        <f t="shared" ref="P28" si="3">SUM(P9:P27)</f>
+        <v>6645.2459999999992</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" ref="Q28" si="4">SUM(Q9:Q27)</f>
         <v>5087.63</v>
       </c>
-      <c r="R27" s="8">
-        <f t="shared" ref="R27" si="5">SUM(R9:R26)</f>
+      <c r="R28" s="8">
+        <f t="shared" ref="R28" si="5">SUM(R9:R27)</f>
         <v>5087.63</v>
       </c>
-      <c r="S27" s="8">
-        <f t="shared" ref="S27" si="6">SUM(S9:S26)</f>
+      <c r="S28" s="8">
+        <f t="shared" ref="S28" si="6">SUM(S9:S27)</f>
         <v>5087.63</v>
       </c>
-      <c r="T27" s="8">
-        <f t="shared" ref="T27" si="7">SUM(T9:T26)</f>
+      <c r="T28" s="8">
+        <f t="shared" ref="T28" si="7">SUM(T9:T27)</f>
         <v>5087.63</v>
       </c>
-      <c r="U27" s="8">
-        <f t="shared" ref="U27" si="8">SUM(U9:U26)</f>
+      <c r="U28" s="8">
+        <f t="shared" ref="U28" si="8">SUM(U9:U27)</f>
         <v>5087.63</v>
       </c>
-      <c r="V27" s="8">
-        <f t="shared" ref="V27" si="9">SUM(V9:V26)</f>
+      <c r="V28" s="8">
+        <f t="shared" ref="V28" si="9">SUM(V9:V27)</f>
         <v>10087.630000000001</v>
       </c>
-      <c r="W27" s="8">
-        <f t="shared" ref="W27" si="10">SUM(W9:W26)</f>
+      <c r="W28" s="8">
+        <f t="shared" ref="W28" si="10">SUM(W9:W27)</f>
         <v>5087.63</v>
       </c>
-      <c r="X27" s="8">
-        <f t="shared" ref="X27" si="11">SUM(X9:X26)</f>
+      <c r="X28" s="8">
+        <f t="shared" ref="X28" si="11">SUM(X9:X27)</f>
         <v>5087.63</v>
       </c>
-      <c r="Y27" s="8">
-        <f t="shared" ref="Y27" si="12">SUM(Y9:Y26)</f>
+      <c r="Y28" s="8">
+        <f t="shared" ref="Y28" si="12">SUM(Y9:Y27)</f>
         <v>5087.63</v>
       </c>
-      <c r="Z27" s="8">
-        <f t="shared" ref="Z27" si="13">SUM(Z9:Z26)</f>
+      <c r="Z28" s="8">
+        <f t="shared" ref="Z28" si="13">SUM(Z9:Z27)</f>
         <v>5087.63</v>
       </c>
-      <c r="AA27" s="27">
-        <f t="shared" ref="AA27" si="14">SUM(AA9:AA26)</f>
-        <v>5952.63</v>
-      </c>
-      <c r="AB27" s="26">
-        <f t="shared" ref="AB27" si="15">SUM(AB9:AB26)</f>
-        <v>20087.63</v>
-      </c>
-      <c r="AC27" s="8">
-        <f t="shared" ref="AC27" si="16">SUM(AC9:AC26)</f>
+      <c r="AA28" s="27">
+        <f t="shared" ref="AA28" si="14">SUM(AA9:AA27)</f>
+        <v>15952.630000000001</v>
+      </c>
+      <c r="AB28" s="26">
+        <f t="shared" ref="AB28" si="15">SUM(AB9:AB27)</f>
+        <v>16735.575599999996</v>
+      </c>
+      <c r="AC28" s="8">
+        <f t="shared" ref="AC28" si="16">SUM(AC9:AC27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AD27" s="8">
-        <f t="shared" ref="AD27" si="17">SUM(AD9:AD26)</f>
+      <c r="AD28" s="8">
+        <f t="shared" ref="AD28" si="17">SUM(AD9:AD27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AE27" s="8">
-        <f t="shared" ref="AE27" si="18">SUM(AE9:AE26)</f>
+      <c r="AE28" s="8">
+        <f t="shared" ref="AE28" si="18">SUM(AE9:AE27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AF27" s="8">
-        <f t="shared" ref="AF27" si="19">SUM(AF9:AF26)</f>
+      <c r="AF28" s="8">
+        <f t="shared" ref="AF28" si="19">SUM(AF9:AF27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AG27" s="8">
-        <f t="shared" ref="AG27" si="20">SUM(AG9:AG26)</f>
+      <c r="AG28" s="8">
+        <f t="shared" ref="AG28" si="20">SUM(AG9:AG27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AH27" s="8">
-        <f t="shared" ref="AH27" si="21">SUM(AH9:AH26)</f>
-        <v>20087.63</v>
-      </c>
-      <c r="AI27" s="8">
-        <f t="shared" ref="AI27" si="22">SUM(AI9:AI26)</f>
+      <c r="AH28" s="8">
+        <f t="shared" ref="AH28" si="21">SUM(AH9:AH27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AJ27" s="8">
-        <f t="shared" ref="AJ27" si="23">SUM(AJ9:AJ26)</f>
+      <c r="AI28" s="8">
+        <f t="shared" ref="AI28" si="22">SUM(AI9:AI27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AK27" s="8">
-        <f t="shared" ref="AK27" si="24">SUM(AK9:AK26)</f>
+      <c r="AJ28" s="8">
+        <f t="shared" ref="AJ28" si="23">SUM(AJ9:AJ27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AL27" s="8">
-        <f t="shared" ref="AL27" si="25">SUM(AL9:AL26)</f>
+      <c r="AK28" s="8">
+        <f t="shared" ref="AK28" si="24">SUM(AK9:AK27)</f>
         <v>10087.629999999999</v>
       </c>
-      <c r="AM27" s="27">
-        <f t="shared" ref="AM27" si="26">SUM(AM9:AM26)</f>
+      <c r="AL28" s="8">
+        <f t="shared" ref="AL28" si="25">SUM(AL9:AL27)</f>
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AM28" s="27">
+        <f t="shared" ref="AM28" si="26">SUM(AM9:AM27)</f>
         <v>10502.63</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
-      <c r="A28" s="2"/>
-      <c r="B28" s="38" t="s">
+    <row r="29" spans="1:39">
+      <c r="A29" s="2"/>
+      <c r="B29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="94">
-        <f t="shared" ref="C28:O28" si="27">C8-C27</f>
+      <c r="C29" s="84">
+        <f t="shared" ref="C29:O29" si="27">C8-C28</f>
         <v>260.70000000000005</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D29" s="30">
         <f t="shared" si="27"/>
         <v>17.269999999999925</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <f t="shared" si="27"/>
         <v>1107.3699999999999</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f t="shared" si="27"/>
         <v>-792.63000000000011</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <f t="shared" si="27"/>
         <v>-92.630000000000109</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <f t="shared" si="27"/>
         <v>407.36999999999989</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="27"/>
         <v>407.36999999999989</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <f t="shared" si="27"/>
         <v>407.36999999999989</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="3">
         <f t="shared" si="27"/>
         <v>607.36999999999989</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L29" s="3">
         <f t="shared" si="27"/>
         <v>807.36999999999989</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="27"/>
         <v>707.36999999999989</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="27"/>
         <v>807.36999999999989</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O29" s="31">
         <f t="shared" si="27"/>
-        <v>242.36999999999989</v>
-      </c>
-      <c r="P28" s="30">
-        <f t="shared" ref="P28" si="28">P8-P27</f>
-        <v>-137.63000000000011</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" ref="Q28" si="29">Q8-Q27</f>
+        <v>-757.63000000000011</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" ref="P29" si="28">P8-P28</f>
+        <v>-695.24599999999919</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" ref="Q29" si="29">Q8-Q28</f>
         <v>2412.37</v>
       </c>
-      <c r="R28" s="3">
-        <f t="shared" ref="R28" si="30">R8-R27</f>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29" si="30">R8-R28</f>
         <v>2412.37</v>
       </c>
-      <c r="S28" s="3">
-        <f t="shared" ref="S28" si="31">S8-S27</f>
+      <c r="S29" s="3">
+        <f t="shared" ref="S29" si="31">S8-S28</f>
         <v>2412.37</v>
       </c>
-      <c r="T28" s="3">
-        <f t="shared" ref="T28" si="32">T8-T27</f>
+      <c r="T29" s="3">
+        <f t="shared" ref="T29" si="32">T8-T28</f>
         <v>2412.37</v>
       </c>
-      <c r="U28" s="3">
-        <f t="shared" ref="U28" si="33">U8-U27</f>
+      <c r="U29" s="3">
+        <f t="shared" ref="U29" si="33">U8-U28</f>
         <v>2412.37</v>
       </c>
-      <c r="V28" s="3">
-        <f t="shared" ref="V28" si="34">V8-V27</f>
+      <c r="V29" s="3">
+        <f t="shared" ref="V29" si="34">V8-V28</f>
         <v>-2337.630000000001</v>
       </c>
-      <c r="W28" s="3">
-        <f t="shared" ref="W28" si="35">W8-W27</f>
+      <c r="W29" s="3">
+        <f t="shared" ref="W29" si="35">W8-W28</f>
         <v>2912.37</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" ref="X28" si="36">X8-X27</f>
+      <c r="X29" s="3">
+        <f t="shared" ref="X29" si="36">X8-X28</f>
         <v>2912.37</v>
       </c>
-      <c r="Y28" s="3">
-        <f t="shared" ref="Y28" si="37">Y8-Y27</f>
+      <c r="Y29" s="3">
+        <f t="shared" ref="Y29" si="37">Y8-Y28</f>
         <v>2912.37</v>
       </c>
-      <c r="Z28" s="3">
-        <f t="shared" ref="Z28" si="38">Z8-Z27</f>
+      <c r="Z29" s="3">
+        <f t="shared" ref="Z29" si="38">Z8-Z28</f>
         <v>2912.37</v>
       </c>
-      <c r="AA28" s="31">
-        <f t="shared" ref="AA28" si="39">AA8-AA27</f>
-        <v>2047.37</v>
-      </c>
-      <c r="AB28" s="30">
-        <f t="shared" ref="AB28" si="40">AB8-AB27</f>
-        <v>-10987.630000000001</v>
-      </c>
-      <c r="AC28" s="3">
-        <f t="shared" ref="AC28" si="41">AC8-AC27</f>
+      <c r="AA29" s="31">
+        <f t="shared" ref="AA29" si="39">AA8-AA28</f>
+        <v>-7952.630000000001</v>
+      </c>
+      <c r="AB29" s="30">
+        <f t="shared" ref="AB29" si="40">AB8-AB28</f>
+        <v>-7635.5755999999965</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" ref="AC29" si="41">AC8-AC28</f>
         <v>112.3700000000008</v>
       </c>
-      <c r="AD28" s="3">
-        <f t="shared" ref="AD28" si="42">AD8-AD27</f>
+      <c r="AD29" s="3">
+        <f t="shared" ref="AD29" si="42">AD8-AD28</f>
         <v>112.3700000000008</v>
       </c>
-      <c r="AE28" s="3">
-        <f t="shared" ref="AE28" si="43">AE8-AE27</f>
+      <c r="AE29" s="3">
+        <f t="shared" ref="AE29" si="43">AE8-AE28</f>
         <v>112.3700000000008</v>
       </c>
-      <c r="AF28" s="3">
-        <f t="shared" ref="AF28" si="44">AF8-AF27</f>
+      <c r="AF29" s="3">
+        <f t="shared" ref="AF29" si="44">AF8-AF28</f>
         <v>112.3700000000008</v>
       </c>
-      <c r="AG28" s="3">
-        <f t="shared" ref="AG28" si="45">AG8-AG27</f>
+      <c r="AG29" s="3">
+        <f t="shared" ref="AG29" si="45">AG8-AG28</f>
         <v>112.3700000000008</v>
       </c>
-      <c r="AH28" s="3">
-        <f t="shared" ref="AH28" si="46">AH8-AH27</f>
-        <v>-9587.630000000001</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" ref="AI28" si="47">AI8-AI27</f>
+      <c r="AH29" s="3">
+        <f t="shared" ref="AH29" si="46">AH8-AH28</f>
+        <v>412.3700000000008</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" ref="AI29" si="47">AI8-AI28</f>
         <v>712.3700000000008</v>
       </c>
-      <c r="AJ28" s="3">
-        <f t="shared" ref="AJ28" si="48">AJ8-AJ27</f>
+      <c r="AJ29" s="3">
+        <f t="shared" ref="AJ29" si="48">AJ8-AJ28</f>
         <v>712.3700000000008</v>
       </c>
-      <c r="AK28" s="3">
-        <f t="shared" ref="AK28" si="49">AK8-AK27</f>
+      <c r="AK29" s="3">
+        <f t="shared" ref="AK29" si="49">AK8-AK28</f>
         <v>712.3700000000008</v>
       </c>
-      <c r="AL28" s="3">
-        <f t="shared" ref="AL28" si="50">AL8-AL27</f>
+      <c r="AL29" s="3">
+        <f t="shared" ref="AL29" si="50">AL8-AL28</f>
         <v>712.3700000000008</v>
       </c>
-      <c r="AM28" s="31">
-        <f t="shared" ref="AM28" si="51">AM8-AM27</f>
+      <c r="AM29" s="31">
+        <f t="shared" ref="AM29" si="51">AM8-AM28</f>
         <v>297.3700000000008</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
-      <c r="A29" s="4"/>
-      <c r="B29" s="32" t="s">
+    <row r="30" spans="1:39">
+      <c r="A30" s="4"/>
+      <c r="B30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="95">
-        <f>C28</f>
+      <c r="C30" s="85">
+        <f>C29</f>
         <v>260.70000000000005</v>
       </c>
-      <c r="D29" s="32">
-        <f t="shared" ref="D29:O29" si="52">C29+D28</f>
+      <c r="D30" s="32">
+        <f t="shared" ref="D30:O30" si="52">C30+D29</f>
         <v>277.96999999999997</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E30" s="33">
         <f t="shared" si="52"/>
         <v>1385.34</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F30" s="33">
         <f t="shared" si="52"/>
         <v>592.70999999999981</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G30" s="33">
         <f t="shared" si="52"/>
         <v>500.0799999999997</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H30" s="33">
         <f t="shared" si="52"/>
         <v>907.44999999999959</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I30" s="33">
         <f t="shared" si="52"/>
         <v>1314.8199999999995</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J30" s="33">
         <f t="shared" si="52"/>
         <v>1722.1899999999994</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K30" s="33">
         <f t="shared" si="52"/>
         <v>2329.5599999999995</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L30" s="33">
         <f t="shared" si="52"/>
         <v>3136.9299999999994</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M30" s="33">
         <f t="shared" si="52"/>
         <v>3844.2999999999993</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N30" s="33">
         <f t="shared" si="52"/>
         <v>4651.6699999999992</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O30" s="34">
         <f t="shared" si="52"/>
-        <v>4894.0399999999991</v>
-      </c>
-      <c r="P29" s="32">
-        <f t="shared" ref="P29" si="53">O29+P28</f>
-        <v>4756.4099999999989</v>
-      </c>
-      <c r="Q29" s="33">
-        <f t="shared" ref="Q29" si="54">P29+Q28</f>
-        <v>7168.7799999999988</v>
-      </c>
-      <c r="R29" s="33">
-        <f t="shared" ref="R29" si="55">Q29+R28</f>
-        <v>9581.1499999999978</v>
-      </c>
-      <c r="S29" s="33">
-        <f t="shared" ref="S29" si="56">R29+S28</f>
-        <v>11993.519999999997</v>
-      </c>
-      <c r="T29" s="33">
-        <f t="shared" ref="T29" si="57">S29+T28</f>
-        <v>14405.889999999996</v>
-      </c>
-      <c r="U29" s="33">
-        <f t="shared" ref="U29" si="58">T29+U28</f>
-        <v>16818.259999999995</v>
-      </c>
-      <c r="V29" s="33">
-        <f t="shared" ref="V29" si="59">U29+V28</f>
-        <v>14480.629999999994</v>
-      </c>
-      <c r="W29" s="33">
-        <f t="shared" ref="W29" si="60">V29+W28</f>
-        <v>17392.999999999993</v>
-      </c>
-      <c r="X29" s="33">
-        <f t="shared" ref="X29" si="61">W29+X28</f>
-        <v>20305.369999999992</v>
-      </c>
-      <c r="Y29" s="33">
-        <f t="shared" ref="Y29" si="62">X29+Y28</f>
-        <v>23217.739999999991</v>
-      </c>
-      <c r="Z29" s="33">
-        <f t="shared" ref="Z29" si="63">Y29+Z28</f>
-        <v>26130.10999999999</v>
-      </c>
-      <c r="AA29" s="34">
-        <f t="shared" ref="AA29" si="64">Z29+AA28</f>
-        <v>28177.479999999989</v>
-      </c>
-      <c r="AB29" s="32">
-        <f t="shared" ref="AB29" si="65">AA29+AB28</f>
-        <v>17189.849999999988</v>
-      </c>
-      <c r="AC29" s="33">
-        <f t="shared" ref="AC29" si="66">AB29+AC28</f>
-        <v>17302.219999999987</v>
-      </c>
-      <c r="AD29" s="33">
-        <f t="shared" ref="AD29" si="67">AC29+AD28</f>
-        <v>17414.589999999989</v>
-      </c>
-      <c r="AE29" s="33">
-        <f t="shared" ref="AE29" si="68">AD29+AE28</f>
-        <v>17526.959999999992</v>
-      </c>
-      <c r="AF29" s="33">
-        <f t="shared" ref="AF29" si="69">AE29+AF28</f>
-        <v>17639.329999999994</v>
-      </c>
-      <c r="AG29" s="33">
-        <f t="shared" ref="AG29" si="70">AF29+AG28</f>
-        <v>17751.699999999997</v>
-      </c>
-      <c r="AH29" s="33">
-        <f t="shared" ref="AH29" si="71">AG29+AH28</f>
-        <v>8164.0699999999961</v>
-      </c>
-      <c r="AI29" s="33">
-        <f t="shared" ref="AI29" si="72">AH29+AI28</f>
-        <v>8876.4399999999969</v>
-      </c>
-      <c r="AJ29" s="33">
-        <f t="shared" ref="AJ29" si="73">AI29+AJ28</f>
-        <v>9588.8099999999977</v>
-      </c>
-      <c r="AK29" s="33">
-        <f t="shared" ref="AK29" si="74">AJ29+AK28</f>
-        <v>10301.179999999998</v>
-      </c>
-      <c r="AL29" s="33">
-        <f t="shared" ref="AL29" si="75">AK29+AL28</f>
-        <v>11013.55</v>
-      </c>
-      <c r="AM29" s="34">
-        <f t="shared" ref="AM29" si="76">AL29+AM28</f>
-        <v>11310.92</v>
+        <v>3894.0399999999991</v>
+      </c>
+      <c r="P30" s="32">
+        <f t="shared" ref="P30" si="53">O30+P29</f>
+        <v>3198.7939999999999</v>
+      </c>
+      <c r="Q30" s="33">
+        <f t="shared" ref="Q30" si="54">P30+Q29</f>
+        <v>5611.1639999999998</v>
+      </c>
+      <c r="R30" s="33">
+        <f t="shared" ref="R30" si="55">Q30+R29</f>
+        <v>8023.5339999999997</v>
+      </c>
+      <c r="S30" s="33">
+        <f t="shared" ref="S30" si="56">R30+S29</f>
+        <v>10435.903999999999</v>
+      </c>
+      <c r="T30" s="33">
+        <f t="shared" ref="T30" si="57">S30+T29</f>
+        <v>12848.273999999998</v>
+      </c>
+      <c r="U30" s="33">
+        <f t="shared" ref="U30" si="58">T30+U29</f>
+        <v>15260.643999999997</v>
+      </c>
+      <c r="V30" s="33">
+        <f t="shared" ref="V30" si="59">U30+V29</f>
+        <v>12923.013999999996</v>
+      </c>
+      <c r="W30" s="33">
+        <f t="shared" ref="W30" si="60">V30+W29</f>
+        <v>15835.383999999995</v>
+      </c>
+      <c r="X30" s="33">
+        <f t="shared" ref="X30" si="61">W30+X29</f>
+        <v>18747.753999999994</v>
+      </c>
+      <c r="Y30" s="33">
+        <f t="shared" ref="Y30" si="62">X30+Y29</f>
+        <v>21660.123999999993</v>
+      </c>
+      <c r="Z30" s="33">
+        <f t="shared" ref="Z30" si="63">Y30+Z29</f>
+        <v>24572.493999999992</v>
+      </c>
+      <c r="AA30" s="34">
+        <f t="shared" ref="AA30" si="64">Z30+AA29</f>
+        <v>16619.86399999999</v>
+      </c>
+      <c r="AB30" s="32">
+        <f t="shared" ref="AB30" si="65">AA30+AB29</f>
+        <v>8984.288399999994</v>
+      </c>
+      <c r="AC30" s="33">
+        <f t="shared" ref="AC30" si="66">AB30+AC29</f>
+        <v>9096.6583999999948</v>
+      </c>
+      <c r="AD30" s="33">
+        <f t="shared" ref="AD30" si="67">AC30+AD29</f>
+        <v>9209.0283999999956</v>
+      </c>
+      <c r="AE30" s="33">
+        <f t="shared" ref="AE30" si="68">AD30+AE29</f>
+        <v>9321.3983999999964</v>
+      </c>
+      <c r="AF30" s="33">
+        <f t="shared" ref="AF30" si="69">AE30+AF29</f>
+        <v>9433.7683999999972</v>
+      </c>
+      <c r="AG30" s="33">
+        <f t="shared" ref="AG30" si="70">AF30+AG29</f>
+        <v>9546.138399999998</v>
+      </c>
+      <c r="AH30" s="33">
+        <f t="shared" ref="AH30" si="71">AG30+AH29</f>
+        <v>9958.5083999999988</v>
+      </c>
+      <c r="AI30" s="33">
+        <f t="shared" ref="AI30" si="72">AH30+AI29</f>
+        <v>10670.8784</v>
+      </c>
+      <c r="AJ30" s="33">
+        <f t="shared" ref="AJ30" si="73">AI30+AJ29</f>
+        <v>11383.2484</v>
+      </c>
+      <c r="AK30" s="33">
+        <f t="shared" ref="AK30" si="74">AJ30+AK29</f>
+        <v>12095.618400000001</v>
+      </c>
+      <c r="AL30" s="33">
+        <f t="shared" ref="AL30" si="75">AK30+AL29</f>
+        <v>12807.988400000002</v>
+      </c>
+      <c r="AM30" s="34">
+        <f t="shared" ref="AM30" si="76">AL30+AM29</f>
+        <v>13105.358400000003</v>
       </c>
     </row>
   </sheetData>
@@ -4381,7 +4461,7 @@
     <mergeCell ref="P9:AA9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C28:AM29">
+  <conditionalFormatting sqref="C29:AM30">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4532,48 +4612,48 @@
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
       <c r="A2" s="23"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="80" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="80" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="82"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="94"/>
     </row>
     <row r="3" spans="1:37" ht="15">
       <c r="A3" s="19" t="s">
@@ -7848,21 +7928,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="12" t="s">

--- a/business plan/Cash Flow.xlsx
+++ b/business plan/Cash Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Forecast" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Receipts</t>
   </si>
@@ -47,13 +47,7 @@
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>net cash flow</t>
-  </si>
-  <si>
     <t>closing balance</t>
-  </si>
-  <si>
-    <t>start-up</t>
   </si>
   <si>
     <t>Business Space</t>
@@ -199,14 +193,27 @@
   <si>
     <t>Equipment</t>
   </si>
+  <si>
+    <t>Net Cash Flow</t>
+  </si>
+  <si>
+    <t>Corporation Tax</t>
+  </si>
+  <si>
+    <t>Cumulative Expenses</t>
+  </si>
+  <si>
+    <t>Cumulative Income</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$£-809]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -653,7 +660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,8 +759,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,6 +1023,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,17 +1062,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="102">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1101,6 +1118,8 @@
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1149,6 +1168,8 @@
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="63" builtinId="10"/>
   </cellStyles>
@@ -1173,6 +1194,1562 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172574582014394"/>
+          <c:y val="0.0125386977799941"/>
+          <c:w val="0.826362860004973"/>
+          <c:h val="0.963312699088165"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Receipts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3900.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>482.7300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>492.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5057.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17.26999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1107.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-792.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-92.63000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>607.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>707.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-757.6300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>closing balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$D$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-722.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>385.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-407.2900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-499.9200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-92.55000000000041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>314.8199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722.1899999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1329.559999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2136.929999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2844.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3651.669999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2894.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2147285992"/>
+        <c:axId val="2112283864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2147285992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112283864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2112283864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="[$£-809]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2147285992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="[$£-809]\ #,##0.00">
+                  <c:v>1639.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2122.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2614.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5807.290000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8999.920000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12192.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15385.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18577.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21770.44000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24963.07000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28155.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31348.33000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36405.96000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="[$£-809]\ #,##0.00">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139618968"/>
+        <c:axId val="-2142688216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139618968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142688216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142688216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="[$£-809]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139618968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Receipts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$8:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3900.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5950.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7750.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9100.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10200.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10200.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10200.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10200.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10200.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10800.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10800.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10800.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10800.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$28:$AM$28</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1639.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.7300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>492.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5057.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5666.438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5087.63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15952.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14407.3644</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10087.63</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10502.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$29:$AM$29</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-739.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.26999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1107.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-792.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-92.63000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>607.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>707.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-757.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283.5619999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2662.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7952.630000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5307.364399999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>412.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>297.3700000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Forecast'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>closing balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Forecast'!$C$30:$AM$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-739.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-722.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>385.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-407.2900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-499.9200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-92.55000000000041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314.8199999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722.1899999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1329.559999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2136.929999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2844.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3651.669999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2894.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3177.601999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5589.971999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8002.341999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10414.712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12827.082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15239.452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17901.822</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20814.192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23726.56199999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26638.93199999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29551.30199999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21598.67199999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16291.30759999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16403.6776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16516.0476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16628.4176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16740.7876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16853.15760000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17265.52760000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17977.89760000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18690.26760000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19402.63760000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20115.00760000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20412.37760000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2138847384"/>
+        <c:axId val="-2142719384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2138847384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142719384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142719384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="[$£-809]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138847384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1500,11 +3077,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1518,8 +3095,8 @@
     <row r="1" spans="1:39" s="64" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="77" t="s">
-        <v>9</v>
+      <c r="C1" s="77">
+        <v>0</v>
       </c>
       <c r="D1" s="58">
         <v>1</v>
@@ -1632,7 +3209,7 @@
     </row>
     <row r="2" spans="1:39" s="66" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>0</v>
@@ -1640,55 +3217,55 @@
       <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="91"/>
+      <c r="D2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="94"/>
     </row>
     <row r="3" spans="1:39" s="67" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="24">
@@ -1802,10 +3379,10 @@
     </row>
     <row r="4" spans="1:39" s="67" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="24">
@@ -1919,10 +3496,10 @@
     </row>
     <row r="5" spans="1:39" s="67" customFormat="1">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="79"/>
       <c r="D5" s="24">
@@ -2036,10 +3613,10 @@
     </row>
     <row r="6" spans="1:39" s="67" customFormat="1">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="24">
@@ -2153,10 +3730,10 @@
     </row>
     <row r="7" spans="1:39" s="67" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="79">
         <v>900</v>
@@ -2360,55 +3937,55 @@
       <c r="C9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="86" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="86" t="s">
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="88"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="91"/>
     </row>
     <row r="10" spans="1:39" s="70" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="82"/>
       <c r="D10" s="28">
@@ -2523,7 +4100,7 @@
     <row r="11" spans="1:39" s="70" customFormat="1">
       <c r="A11" s="5"/>
       <c r="B11" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="82"/>
       <c r="D11" s="28">
@@ -2637,10 +4214,10 @@
     </row>
     <row r="12" spans="1:39" s="70" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="82">
         <v>60.8</v>
@@ -2759,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="28">
@@ -2873,10 +4450,10 @@
     </row>
     <row r="14" spans="1:39" s="70" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="82">
         <v>7</v>
@@ -2920,10 +4497,10 @@
     </row>
     <row r="15" spans="1:39" s="70" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="28">
@@ -3076,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="82"/>
       <c r="D16" s="28">
@@ -3190,10 +4767,10 @@
     </row>
     <row r="17" spans="1:39" s="70" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="82">
         <v>11.5</v>
@@ -3310,7 +4887,7 @@
     <row r="18" spans="1:39" s="70" customFormat="1">
       <c r="A18" s="5"/>
       <c r="B18" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="28"/>
@@ -3323,27 +4900,25 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="98">
+      <c r="N18" s="86"/>
+      <c r="O18" s="87">
         <v>1000</v>
       </c>
-      <c r="P18" s="97"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6">
-        <v>5000</v>
-      </c>
+      <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="98">
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="88">
         <v>10000</v>
       </c>
-      <c r="AB18" s="97"/>
+      <c r="AB18" s="87"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
@@ -3358,10 +4933,10 @@
     </row>
     <row r="19" spans="1:39" s="70" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="82">
         <v>50</v>
@@ -3405,10 +4980,10 @@
     </row>
     <row r="20" spans="1:39" s="70" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="28">
@@ -3522,10 +5097,10 @@
     </row>
     <row r="21" spans="1:39" s="70" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="82">
         <v>10</v>
@@ -3569,10 +5144,10 @@
     </row>
     <row r="22" spans="1:39" s="70" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="28">
@@ -3686,10 +5261,10 @@
     </row>
     <row r="23" spans="1:39" s="70" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="82"/>
       <c r="D23" s="63"/>
@@ -3741,7 +5316,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="83">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D24" s="74"/>
       <c r="E24" s="75"/>
@@ -3783,7 +5358,7 @@
     <row r="25" spans="1:39" s="70" customFormat="1">
       <c r="A25" s="5"/>
       <c r="B25" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="82"/>
       <c r="D25" s="63"/>
@@ -3829,7 +5404,9 @@
     </row>
     <row r="26" spans="1:39" s="70" customFormat="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="37"/>
+      <c r="B26" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="82"/>
       <c r="D26" s="63"/>
       <c r="E26" s="73"/>
@@ -3844,8 +5421,8 @@
       <c r="N26" s="73"/>
       <c r="O26" s="71"/>
       <c r="P26" s="63">
-        <f>SUM(0.4*O30)</f>
-        <v>1557.6159999999998</v>
+        <f>SUM(0.2*O30)</f>
+        <v>578.80799999999988</v>
       </c>
       <c r="Q26" s="73"/>
       <c r="R26" s="73"/>
@@ -3859,8 +5436,8 @@
       <c r="Z26" s="73"/>
       <c r="AA26" s="71"/>
       <c r="AB26" s="63">
-        <f>SUM(0.4*AA30)</f>
-        <v>6647.9455999999964</v>
+        <f>SUM(0.2*AA30)</f>
+        <v>4319.7343999999985</v>
       </c>
       <c r="AC26" s="73"/>
       <c r="AD26" s="73"/>
@@ -3877,7 +5454,7 @@
     <row r="27" spans="1:39" s="70" customFormat="1">
       <c r="A27" s="5"/>
       <c r="B27" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="82"/>
       <c r="D27" s="28">
@@ -3996,7 +5573,7 @@
       </c>
       <c r="C28" s="80">
         <f t="shared" ref="C28:O28" si="2">SUM(C9:C27)</f>
-        <v>639.29999999999995</v>
+        <v>1639.3</v>
       </c>
       <c r="D28" s="26">
         <f t="shared" si="2"/>
@@ -4048,7 +5625,7 @@
       </c>
       <c r="P28" s="26">
         <f t="shared" ref="P28" si="3">SUM(P9:P27)</f>
-        <v>6645.2459999999992</v>
+        <v>5666.4380000000001</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" ref="Q28" si="4">SUM(Q9:Q27)</f>
@@ -4072,7 +5649,7 @@
       </c>
       <c r="V28" s="8">
         <f t="shared" ref="V28" si="9">SUM(V9:V27)</f>
-        <v>10087.630000000001</v>
+        <v>5087.63</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" ref="W28" si="10">SUM(W9:W27)</f>
@@ -4096,7 +5673,7 @@
       </c>
       <c r="AB28" s="26">
         <f t="shared" ref="AB28" si="15">SUM(AB9:AB27)</f>
-        <v>16735.575599999996</v>
+        <v>14407.364399999999</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ref="AC28" si="16">SUM(AC9:AC27)</f>
@@ -4146,11 +5723,11 @@
     <row r="29" spans="1:39">
       <c r="A29" s="2"/>
       <c r="B29" s="38" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C29" s="84">
         <f t="shared" ref="C29:O29" si="27">C8-C28</f>
-        <v>260.70000000000005</v>
+        <v>-739.3</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" si="27"/>
@@ -4202,7 +5779,7 @@
       </c>
       <c r="P29" s="30">
         <f t="shared" ref="P29" si="28">P8-P28</f>
-        <v>-695.24599999999919</v>
+        <v>283.5619999999999</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" ref="Q29" si="29">Q8-Q28</f>
@@ -4226,7 +5803,7 @@
       </c>
       <c r="V29" s="3">
         <f t="shared" ref="V29" si="34">V8-V28</f>
-        <v>-2337.630000000001</v>
+        <v>2662.37</v>
       </c>
       <c r="W29" s="3">
         <f t="shared" ref="W29" si="35">W8-W28</f>
@@ -4250,7 +5827,7 @@
       </c>
       <c r="AB29" s="30">
         <f t="shared" ref="AB29" si="40">AB8-AB28</f>
-        <v>-7635.5755999999965</v>
+        <v>-5307.3643999999986</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ref="AC29" si="41">AC8-AC28</f>
@@ -4300,155 +5877,269 @@
     <row r="30" spans="1:39">
       <c r="A30" s="4"/>
       <c r="B30" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="85">
         <f>C29</f>
-        <v>260.70000000000005</v>
+        <v>-739.3</v>
       </c>
       <c r="D30" s="32">
         <f t="shared" ref="D30:O30" si="52">C30+D29</f>
-        <v>277.96999999999997</v>
+        <v>-722.03</v>
       </c>
       <c r="E30" s="33">
         <f t="shared" si="52"/>
-        <v>1385.34</v>
+        <v>385.33999999999992</v>
       </c>
       <c r="F30" s="33">
         <f t="shared" si="52"/>
-        <v>592.70999999999981</v>
+        <v>-407.29000000000019</v>
       </c>
       <c r="G30" s="33">
         <f t="shared" si="52"/>
-        <v>500.0799999999997</v>
+        <v>-499.9200000000003</v>
       </c>
       <c r="H30" s="33">
         <f t="shared" si="52"/>
-        <v>907.44999999999959</v>
+        <v>-92.550000000000409</v>
       </c>
       <c r="I30" s="33">
         <f t="shared" si="52"/>
-        <v>1314.8199999999995</v>
+        <v>314.81999999999948</v>
       </c>
       <c r="J30" s="33">
         <f t="shared" si="52"/>
-        <v>1722.1899999999994</v>
+        <v>722.18999999999937</v>
       </c>
       <c r="K30" s="33">
         <f t="shared" si="52"/>
-        <v>2329.5599999999995</v>
+        <v>1329.5599999999993</v>
       </c>
       <c r="L30" s="33">
         <f t="shared" si="52"/>
-        <v>3136.9299999999994</v>
+        <v>2136.9299999999994</v>
       </c>
       <c r="M30" s="33">
         <f t="shared" si="52"/>
-        <v>3844.2999999999993</v>
+        <v>2844.2999999999993</v>
       </c>
       <c r="N30" s="33">
         <f t="shared" si="52"/>
-        <v>4651.6699999999992</v>
+        <v>3651.6699999999992</v>
       </c>
       <c r="O30" s="34">
         <f t="shared" si="52"/>
-        <v>3894.0399999999991</v>
+        <v>2894.0399999999991</v>
       </c>
       <c r="P30" s="32">
         <f t="shared" ref="P30" si="53">O30+P29</f>
-        <v>3198.7939999999999</v>
+        <v>3177.601999999999</v>
       </c>
       <c r="Q30" s="33">
         <f t="shared" ref="Q30" si="54">P30+Q29</f>
-        <v>5611.1639999999998</v>
+        <v>5589.9719999999988</v>
       </c>
       <c r="R30" s="33">
         <f t="shared" ref="R30" si="55">Q30+R29</f>
-        <v>8023.5339999999997</v>
+        <v>8002.3419999999987</v>
       </c>
       <c r="S30" s="33">
         <f t="shared" ref="S30" si="56">R30+S29</f>
-        <v>10435.903999999999</v>
+        <v>10414.712</v>
       </c>
       <c r="T30" s="33">
         <f t="shared" ref="T30" si="57">S30+T29</f>
-        <v>12848.273999999998</v>
+        <v>12827.081999999999</v>
       </c>
       <c r="U30" s="33">
         <f t="shared" ref="U30" si="58">T30+U29</f>
-        <v>15260.643999999997</v>
+        <v>15239.451999999997</v>
       </c>
       <c r="V30" s="33">
         <f t="shared" ref="V30" si="59">U30+V29</f>
-        <v>12923.013999999996</v>
+        <v>17901.821999999996</v>
       </c>
       <c r="W30" s="33">
         <f t="shared" ref="W30" si="60">V30+W29</f>
-        <v>15835.383999999995</v>
+        <v>20814.191999999995</v>
       </c>
       <c r="X30" s="33">
         <f t="shared" ref="X30" si="61">W30+X29</f>
-        <v>18747.753999999994</v>
+        <v>23726.561999999994</v>
       </c>
       <c r="Y30" s="33">
         <f t="shared" ref="Y30" si="62">X30+Y29</f>
-        <v>21660.123999999993</v>
+        <v>26638.931999999993</v>
       </c>
       <c r="Z30" s="33">
         <f t="shared" ref="Z30" si="63">Y30+Z29</f>
-        <v>24572.493999999992</v>
+        <v>29551.301999999992</v>
       </c>
       <c r="AA30" s="34">
         <f t="shared" ref="AA30" si="64">Z30+AA29</f>
-        <v>16619.86399999999</v>
+        <v>21598.671999999991</v>
       </c>
       <c r="AB30" s="32">
         <f t="shared" ref="AB30" si="65">AA30+AB29</f>
-        <v>8984.288399999994</v>
+        <v>16291.307599999993</v>
       </c>
       <c r="AC30" s="33">
         <f t="shared" ref="AC30" si="66">AB30+AC29</f>
-        <v>9096.6583999999948</v>
+        <v>16403.677599999995</v>
       </c>
       <c r="AD30" s="33">
         <f t="shared" ref="AD30" si="67">AC30+AD29</f>
-        <v>9209.0283999999956</v>
+        <v>16516.047599999998</v>
       </c>
       <c r="AE30" s="33">
         <f t="shared" ref="AE30" si="68">AD30+AE29</f>
-        <v>9321.3983999999964</v>
+        <v>16628.417600000001</v>
       </c>
       <c r="AF30" s="33">
         <f t="shared" ref="AF30" si="69">AE30+AF29</f>
-        <v>9433.7683999999972</v>
+        <v>16740.787600000003</v>
       </c>
       <c r="AG30" s="33">
         <f t="shared" ref="AG30" si="70">AF30+AG29</f>
-        <v>9546.138399999998</v>
+        <v>16853.157600000006</v>
       </c>
       <c r="AH30" s="33">
         <f t="shared" ref="AH30" si="71">AG30+AH29</f>
-        <v>9958.5083999999988</v>
+        <v>17265.527600000009</v>
       </c>
       <c r="AI30" s="33">
         <f t="shared" ref="AI30" si="72">AH30+AI29</f>
-        <v>10670.8784</v>
+        <v>17977.897600000011</v>
       </c>
       <c r="AJ30" s="33">
         <f t="shared" ref="AJ30" si="73">AI30+AJ29</f>
-        <v>11383.2484</v>
+        <v>18690.267600000014</v>
       </c>
       <c r="AK30" s="33">
         <f t="shared" ref="AK30" si="74">AJ30+AK29</f>
-        <v>12095.618400000001</v>
+        <v>19402.637600000016</v>
       </c>
       <c r="AL30" s="33">
         <f t="shared" ref="AL30" si="75">AK30+AL29</f>
-        <v>12807.988400000002</v>
+        <v>20115.007600000019</v>
       </c>
       <c r="AM30" s="34">
         <f t="shared" ref="AM30" si="76">AL30+AM29</f>
-        <v>13105.358400000003</v>
+        <v>20412.377600000022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="100">
+        <f>SUM(C28)</f>
+        <v>1639.3</v>
+      </c>
+      <c r="D32" s="99">
+        <f>SUM(C32+D28)</f>
+        <v>2122.0300000000002</v>
+      </c>
+      <c r="E32" s="99">
+        <f>SUM(D32+E28)</f>
+        <v>2614.6600000000003</v>
+      </c>
+      <c r="F32" s="99">
+        <f t="shared" ref="F32:O32" si="77">SUM(E32+F28)</f>
+        <v>5807.2900000000009</v>
+      </c>
+      <c r="G32" s="99">
+        <f t="shared" si="77"/>
+        <v>8999.9200000000019</v>
+      </c>
+      <c r="H32" s="99">
+        <f t="shared" si="77"/>
+        <v>12192.550000000003</v>
+      </c>
+      <c r="I32" s="99">
+        <f t="shared" si="77"/>
+        <v>15385.180000000004</v>
+      </c>
+      <c r="J32" s="99">
+        <f t="shared" si="77"/>
+        <v>18577.810000000005</v>
+      </c>
+      <c r="K32" s="99">
+        <f t="shared" si="77"/>
+        <v>21770.440000000006</v>
+      </c>
+      <c r="L32" s="99">
+        <f t="shared" si="77"/>
+        <v>24963.070000000007</v>
+      </c>
+      <c r="M32" s="99">
+        <f t="shared" si="77"/>
+        <v>28155.700000000008</v>
+      </c>
+      <c r="N32" s="99">
+        <f t="shared" si="77"/>
+        <v>31348.330000000009</v>
+      </c>
+      <c r="O32" s="99">
+        <f t="shared" si="77"/>
+        <v>36405.960000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="100">
+        <f>SUM(C8)</f>
+        <v>900</v>
+      </c>
+      <c r="D33" s="99">
+        <f>SUM(C33+D8)</f>
+        <v>1400</v>
+      </c>
+      <c r="E33" s="99">
+        <f t="shared" ref="E33:O33" si="78">SUM(D33+E8)</f>
+        <v>3000</v>
+      </c>
+      <c r="F33" s="99">
+        <f t="shared" si="78"/>
+        <v>5400</v>
+      </c>
+      <c r="G33" s="99">
+        <f t="shared" si="78"/>
+        <v>8500</v>
+      </c>
+      <c r="H33" s="99">
+        <f t="shared" si="78"/>
+        <v>12100</v>
+      </c>
+      <c r="I33" s="99">
+        <f t="shared" si="78"/>
+        <v>15700</v>
+      </c>
+      <c r="J33" s="99">
+        <f t="shared" si="78"/>
+        <v>19300</v>
+      </c>
+      <c r="K33" s="99">
+        <f t="shared" si="78"/>
+        <v>23100</v>
+      </c>
+      <c r="L33" s="99">
+        <f t="shared" si="78"/>
+        <v>27100</v>
+      </c>
+      <c r="M33" s="99">
+        <f t="shared" si="78"/>
+        <v>31000</v>
+      </c>
+      <c r="N33" s="99">
+        <f t="shared" si="78"/>
+        <v>35000</v>
+      </c>
+      <c r="O33" s="99">
+        <f t="shared" si="78"/>
+        <v>39300</v>
       </c>
     </row>
   </sheetData>
@@ -4474,6 +6165,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -4490,7 +6182,7 @@
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4612,52 +6304,52 @@
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
       <c r="A2" s="23"/>
-      <c r="B2" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="94"/>
+      <c r="B2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="97"/>
     </row>
     <row r="3" spans="1:37" ht="15">
       <c r="A3" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="41">
         <v>200</v>
@@ -4770,7 +6462,7 @@
     </row>
     <row r="4" spans="1:37" ht="15">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="43">
         <v>5</v>
@@ -4883,7 +6575,7 @@
     </row>
     <row r="5" spans="1:37" ht="15">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="43">
         <f>SUM(B3*B4)</f>
@@ -5032,7 +6724,7 @@
     </row>
     <row r="6" spans="1:37" ht="15">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="43">
         <f>SUM(B5/2)</f>
@@ -5181,7 +6873,7 @@
     </row>
     <row r="7" spans="1:37" ht="15">
       <c r="A7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="45">
         <v>400</v>
@@ -5294,7 +6986,7 @@
     </row>
     <row r="8" spans="1:37" ht="15">
       <c r="A8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="45">
         <v>0</v>
@@ -5407,7 +7099,7 @@
     </row>
     <row r="9" spans="1:37" ht="15">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="45">
         <v>0</v>
@@ -5555,7 +7247,7 @@
     </row>
     <row r="10" spans="1:37" ht="15">
       <c r="A10" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="45">
         <f>SUM(B8*300)</f>
@@ -5704,7 +7396,7 @@
     </row>
     <row r="11" spans="1:37" ht="15">
       <c r="A11" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="43">
         <f t="shared" ref="B11:M11" si="4">SUM(B7)</f>
@@ -5853,7 +7545,7 @@
     </row>
     <row r="12" spans="1:37" ht="15">
       <c r="A12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="43">
         <v>0</v>
@@ -5966,7 +7658,7 @@
     </row>
     <row r="13" spans="1:37" ht="15">
       <c r="A13" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="43">
         <v>0</v>
@@ -6114,7 +7806,7 @@
     </row>
     <row r="14" spans="1:37" ht="15">
       <c r="A14" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="43">
         <f>SUM(300*B12)</f>
@@ -6263,7 +7955,7 @@
     </row>
     <row r="15" spans="1:37" ht="15">
       <c r="A15" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="45">
         <f t="shared" ref="B15:M15" si="8">SUM(B7)</f>
@@ -6412,7 +8104,7 @@
     </row>
     <row r="16" spans="1:37" ht="15">
       <c r="A16" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="45">
         <v>0</v>
@@ -6525,7 +8217,7 @@
     </row>
     <row r="17" spans="1:37" ht="15">
       <c r="A17" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="45">
         <v>0</v>
@@ -6673,7 +8365,7 @@
     </row>
     <row r="18" spans="1:37" ht="15">
       <c r="A18" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="45">
         <f>SUM(300*B16)</f>
@@ -6822,7 +8514,7 @@
     </row>
     <row r="19" spans="1:37" s="16" customFormat="1" ht="15">
       <c r="A19" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="47">
         <f t="shared" ref="B19:N19" si="12">SUM(B4+B8+B12+B16)</f>
@@ -6971,7 +8663,7 @@
     </row>
     <row r="20" spans="1:37" s="16" customFormat="1" ht="15">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="47">
         <f t="shared" ref="B20:M20" si="14">SUM(B5+B9+B13+B17)</f>
@@ -7120,7 +8812,7 @@
     </row>
     <row r="21" spans="1:37" s="16" customFormat="1" ht="15">
       <c r="A21" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="49">
         <f t="shared" ref="B21:M21" si="16">SUM(B6+B10+B14+B18)</f>
@@ -7928,25 +9620,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="A2" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="13">
         <v>5</v>
@@ -7990,7 +9682,7 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="13">
         <f>SUM(N3*B3)</f>
@@ -8043,7 +9735,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13">
         <f>SUM(B4/2)</f>
@@ -8096,7 +9788,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8140,7 +9832,7 @@
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
@@ -8192,7 +9884,7 @@
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="15">
         <f>SUM(B6*300)</f>
@@ -8245,7 +9937,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
@@ -8286,7 +9978,7 @@
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="13">
         <v>0</v>
@@ -8338,7 +10030,7 @@
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13">
         <f>SUM(300*B9)</f>
@@ -8391,7 +10083,7 @@
     </row>
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
@@ -8432,7 +10124,7 @@
     </row>
     <row r="13" spans="1:14" ht="15">
       <c r="A13" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="15">
         <v>0</v>
@@ -8484,7 +10176,7 @@
     </row>
     <row r="14" spans="1:14" ht="15">
       <c r="A14" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="15">
         <f>SUM(300*B12)</f>
@@ -8537,7 +10229,7 @@
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="11">
         <f>SUM(B3+B6+B9+B12)</f>
@@ -8590,7 +10282,7 @@
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11">
         <f>SUM(B4+B7+B10+B13)</f>
@@ -8643,7 +10335,7 @@
     </row>
     <row r="17" spans="1:13" s="16" customFormat="1" ht="15">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11">
         <f>SUM(B5+B8+B11+B14)</f>

--- a/business plan/Cash Flow.xlsx
+++ b/business plan/Cash Flow.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Volume of Work" sheetId="3" r:id="rId1"/>
     <sheet name="3 Year Financial Forecast" sheetId="1" r:id="rId2"/>
     <sheet name="Break Even (year 1)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'3 Year Financial Forecast'!$A:$A</definedName>
@@ -24,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Receipts</t>
-  </si>
-  <si>
-    <t>Total Receipts</t>
   </si>
   <si>
     <t>Payments</t>
@@ -42,12 +40,6 @@
   </si>
   <si>
     <t>profesional fees</t>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-  </si>
-  <si>
-    <t>closing balance</t>
   </si>
   <si>
     <t>Business Space</t>
@@ -204,6 +196,18 @@
   </si>
   <si>
     <t>£250 start up deocumentation, £1000 shareholder agreement</t>
+  </si>
+  <si>
+    <t>Monthly Expenses</t>
+  </si>
+  <si>
+    <t>Monthly Receipts</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -657,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,8 +774,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -925,21 +935,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -991,23 +986,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1078,8 +1061,104 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="118">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1135,6 +1214,9 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1190,10 +1272,98 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="63" builtinId="10"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1239,7 +1409,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.172574533183697"/>
           <c:y val="0.0217158154022698"/>
-          <c:w val="0.701966697097645"/>
+          <c:w val="0.642250071726864"/>
           <c:h val="0.963312699088165"/>
         </c:manualLayout>
       </c:layout>
@@ -1255,7 +1425,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Receipts</c:v>
+                  <c:v>Monthly Receipts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1272,44 +1442,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$1:$O$1</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1317,24 +1490,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$8:$O$8</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1600.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2400.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3600.0</c:v>
@@ -1343,18 +1516,21 @@
                   <c:v>3600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3800.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4000.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3900.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4000.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4300.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1371,7 +1547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Expenses</c:v>
+                  <c:v>Monthly Expenses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1381,44 +1557,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$1:$O$1</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1426,18 +1605,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$27:$O$27</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1354.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>482.7300000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>492.6300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3192.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3192.63</c:v>
@@ -1464,6 +1643,9 @@
                   <c:v>3192.63</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3192.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5107.63</c:v>
                 </c:pt>
               </c:numCache>
@@ -1497,44 +1679,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$1:$O$1</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1542,24 +1727,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$28:$O$28</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>145.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>17.26999999999992</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1107.37</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-792.6300000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-92.63000000000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>407.3699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>407.3699999999999</c:v>
@@ -1568,18 +1753,21 @@
                   <c:v>407.3699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>607.3699999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>807.3699999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>707.3699999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>807.3699999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-807.6300000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1596,7 +1784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>closing balance</c:v>
+                  <c:v>Balance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1606,44 +1794,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$1:$O$1</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1651,44 +1842,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 Year Financial Forecast'!$D$29:$O$29</c:f>
+              <c:f>'3 Year Financial Forecast'!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>145.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>162.97</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1270.34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>477.7099999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>385.0799999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>792.4499999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1199.819999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1607.189999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2214.559999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3021.929999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3729.299999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4536.67</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3729.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1706,11 +1900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070202584"/>
-        <c:axId val="2070199448"/>
+        <c:axId val="2070511688"/>
+        <c:axId val="2070514808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2070202584"/>
+        <c:axId val="2070511688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070199448"/>
+        <c:crossAx val="2070514808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1728,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070199448"/>
+        <c:axId val="2070514808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070202584"/>
+        <c:crossAx val="2070511688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,9 +1944,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.808912282703792"/>
+          <c:x val="0.795218926328541"/>
           <c:y val="0.36863609923412"/>
-          <c:w val="0.191087717296208"/>
+          <c:w val="0.204781073671459"/>
           <c:h val="0.258706354235043"/>
         </c:manualLayout>
       </c:layout>
@@ -1809,7 +2003,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Receipts</c:v>
+                  <c:v>Monthly Receipts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,6 +2018,126 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 Year Financial Forecast'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'3 Year Financial Forecast'!$C$8:$AM$8</c:f>
@@ -1955,7 +2269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Expenses</c:v>
+                  <c:v>Monthly Expenses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1963,6 +2277,126 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 Year Financial Forecast'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'3 Year Financial Forecast'!$C$27:$AM$27</c:f>
@@ -2109,6 +2543,126 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 Year Financial Forecast'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'3 Year Financial Forecast'!$C$28:$AM$28</c:f>
@@ -2240,7 +2794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>closing balance</c:v>
+                  <c:v>Balance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2248,6 +2802,126 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 Year Financial Forecast'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'3 Year Financial Forecast'!$C$29:$AM$29</c:f>
@@ -2380,20 +3054,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070106728"/>
-        <c:axId val="2070103624"/>
+        <c:axId val="2070578520"/>
+        <c:axId val="2070581608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2070106728"/>
+        <c:axId val="2070578520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070103624"/>
+        <c:crossAx val="2070581608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2401,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070103624"/>
+        <c:axId val="2070581608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +3087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070106728"/>
+        <c:crossAx val="2070578520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,7 +3346,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2880,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2069944328"/>
-        <c:axId val="2069941336"/>
+        <c:axId val="2070661608"/>
+        <c:axId val="2070664616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2069944328"/>
+        <c:axId val="2070661608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +3578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069941336"/>
+        <c:crossAx val="2070664616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2912,7 +3586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069941336"/>
+        <c:axId val="2070664616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,14 +3607,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069944328"/>
+        <c:crossAx val="2070661608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2965,6 +3638,1127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Receipts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$AM$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12700.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16300.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19900.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23700.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27700.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31600.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39900.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45850.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53350.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60850.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68350.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75850.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83350.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91100.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107100.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115100.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123100.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131100.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>140200.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150400.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160600.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170800.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>181000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>191200.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>201700.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>212500.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>223300.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>234100.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>244900.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>255700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1354.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1837.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2329.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5522.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8714.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11907.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15100.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18292.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21485.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24678.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27870.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31063.33000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36170.96000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42004.39800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47092.02800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52179.658</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57267.288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62354.918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67442.548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72530.178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77617.808</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82705.43800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87793.06800000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92880.69800000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108883.328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123414.2924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133501.9224</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143589.5524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153677.1824</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163764.8124</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>173852.4424</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>183940.0724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194027.7024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>204115.3324</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>214202.9624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>224290.5924000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>235293.2224000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$AM$9</c:f>
+              <c:numCache>
+                <c:formatCode>[$£-809]\ #,##0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>145.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.26999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1107.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-792.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-92.63000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>407.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>607.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>707.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>807.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-807.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.5619999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2412.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2662.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2912.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8002.630000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5430.964399999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>412.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>712.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-202.630000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$AM$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>145.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>477.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385.0799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>792.4499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199.819999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1607.189999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2214.559999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3021.929999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3729.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4536.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3729.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3845.601999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6257.971999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8670.341999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11082.712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13495.082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15907.452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18569.822</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21482.192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24394.56199999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27306.93199999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30219.30199999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22216.67199999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16785.70759999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16898.0776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17010.4476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17122.8176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17235.1876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17347.55760000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17759.92760000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18472.29760000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19184.66760000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19897.03760000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20609.40760000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20406.77760000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2083189032"/>
+        <c:axId val="2083143560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2083189032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083143560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083143560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="[$£-809]\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083189032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2975,8 +4769,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>33868</xdr:rowOff>
     </xdr:to>
@@ -3044,6 +4838,41 @@
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3515,52 +5344,52 @@
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="55"/>
+      <c r="B2" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="95"/>
     </row>
     <row r="3" spans="1:37" ht="15">
       <c r="A3" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="23">
         <v>200</v>
@@ -3673,7 +5502,7 @@
     </row>
     <row r="4" spans="1:37" ht="15">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="25">
         <v>5</v>
@@ -3786,7 +5615,7 @@
     </row>
     <row r="5" spans="1:37" ht="15">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="25">
         <f>SUM(B3*B4)</f>
@@ -3935,7 +5764,7 @@
     </row>
     <row r="6" spans="1:37" ht="15">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="25">
         <f>SUM(B5/2)</f>
@@ -4084,7 +5913,7 @@
     </row>
     <row r="7" spans="1:37" ht="15">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="27">
         <v>400</v>
@@ -4197,7 +6026,7 @@
     </row>
     <row r="8" spans="1:37" ht="15">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="27">
         <v>0</v>
@@ -4310,7 +6139,7 @@
     </row>
     <row r="9" spans="1:37" ht="15">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="27">
         <v>0</v>
@@ -4458,7 +6287,7 @@
     </row>
     <row r="10" spans="1:37" ht="15">
       <c r="A10" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="27">
         <f>SUM(B8*300)</f>
@@ -4607,7 +6436,7 @@
     </row>
     <row r="11" spans="1:37" ht="15">
       <c r="A11" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" ref="B11:M11" si="4">SUM(B7)</f>
@@ -4756,7 +6585,7 @@
     </row>
     <row r="12" spans="1:37" ht="15">
       <c r="A12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="25">
         <v>0</v>
@@ -4869,7 +6698,7 @@
     </row>
     <row r="13" spans="1:37" ht="15">
       <c r="A13" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="25">
         <v>0</v>
@@ -5017,7 +6846,7 @@
     </row>
     <row r="14" spans="1:37" ht="15">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="25">
         <f>SUM(300*B12)</f>
@@ -5166,7 +6995,7 @@
     </row>
     <row r="15" spans="1:37" ht="15">
       <c r="A15" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="27">
         <f t="shared" ref="B15:M15" si="8">SUM(B7)</f>
@@ -5315,7 +7144,7 @@
     </row>
     <row r="16" spans="1:37" ht="15">
       <c r="A16" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="27">
         <v>0</v>
@@ -5428,7 +7257,7 @@
     </row>
     <row r="17" spans="1:37" ht="15">
       <c r="A17" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="27">
         <v>0</v>
@@ -5576,7 +7405,7 @@
     </row>
     <row r="18" spans="1:37" ht="15">
       <c r="A18" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="27">
         <f>SUM(300*B16)</f>
@@ -5725,7 +7554,7 @@
     </row>
     <row r="19" spans="1:37" s="14" customFormat="1" ht="15">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="29">
         <f t="shared" ref="B19:N19" si="12">SUM(B4+B8+B12+B16)</f>
@@ -5874,7 +7703,7 @@
     </row>
     <row r="20" spans="1:37" s="14" customFormat="1" ht="15">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="29">
         <f t="shared" ref="B20:M20" si="14">SUM(B5+B9+B13+B17)</f>
@@ -6023,7 +7852,7 @@
     </row>
     <row r="21" spans="1:37" s="14" customFormat="1" ht="15">
       <c r="A21" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="31">
         <f t="shared" ref="B21:M21" si="16">SUM(B6+B10+B14+B18)</f>
@@ -6785,9 +8614,9 @@
   </sheetPr>
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6800,181 +8629,181 @@
   <sheetData>
     <row r="1" spans="1:39" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="62">
-        <v>0</v>
-      </c>
-      <c r="D1" s="70">
+      <c r="B1" s="52"/>
+      <c r="C1" s="57">
+        <v>0</v>
+      </c>
+      <c r="D1" s="65">
         <v>1</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="66">
         <v>2</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="66">
         <v>3</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="66">
         <v>4</v>
       </c>
-      <c r="H1" s="71">
+      <c r="H1" s="66">
         <v>5</v>
       </c>
-      <c r="I1" s="71">
+      <c r="I1" s="66">
         <v>6</v>
       </c>
-      <c r="J1" s="71">
+      <c r="J1" s="66">
         <v>7</v>
       </c>
-      <c r="K1" s="71">
+      <c r="K1" s="66">
         <v>8</v>
       </c>
-      <c r="L1" s="71">
+      <c r="L1" s="66">
         <v>9</v>
       </c>
-      <c r="M1" s="71">
+      <c r="M1" s="66">
         <v>10</v>
       </c>
-      <c r="N1" s="71">
+      <c r="N1" s="66">
         <v>11</v>
       </c>
-      <c r="O1" s="72">
+      <c r="O1" s="67">
         <v>12</v>
       </c>
-      <c r="P1" s="70">
+      <c r="P1" s="65">
         <v>13</v>
       </c>
-      <c r="Q1" s="71">
+      <c r="Q1" s="66">
         <v>14</v>
       </c>
-      <c r="R1" s="71">
+      <c r="R1" s="66">
         <v>15</v>
       </c>
-      <c r="S1" s="71">
+      <c r="S1" s="66">
         <v>16</v>
       </c>
-      <c r="T1" s="71">
+      <c r="T1" s="66">
         <v>17</v>
       </c>
-      <c r="U1" s="71">
+      <c r="U1" s="66">
         <v>18</v>
       </c>
-      <c r="V1" s="71">
+      <c r="V1" s="66">
         <v>19</v>
       </c>
-      <c r="W1" s="71">
+      <c r="W1" s="66">
         <v>20</v>
       </c>
-      <c r="X1" s="71">
+      <c r="X1" s="66">
         <v>21</v>
       </c>
-      <c r="Y1" s="71">
+      <c r="Y1" s="66">
         <v>22</v>
       </c>
-      <c r="Z1" s="71">
+      <c r="Z1" s="66">
         <v>23</v>
       </c>
-      <c r="AA1" s="72">
+      <c r="AA1" s="67">
         <v>24</v>
       </c>
-      <c r="AB1" s="70">
+      <c r="AB1" s="65">
         <v>25</v>
       </c>
-      <c r="AC1" s="71">
+      <c r="AC1" s="66">
         <v>26</v>
       </c>
-      <c r="AD1" s="71">
+      <c r="AD1" s="66">
         <v>27</v>
       </c>
-      <c r="AE1" s="71">
+      <c r="AE1" s="66">
         <v>28</v>
       </c>
-      <c r="AF1" s="71">
+      <c r="AF1" s="66">
         <v>29</v>
       </c>
-      <c r="AG1" s="71">
+      <c r="AG1" s="66">
         <v>30</v>
       </c>
-      <c r="AH1" s="71">
+      <c r="AH1" s="66">
         <v>31</v>
       </c>
-      <c r="AI1" s="71">
+      <c r="AI1" s="66">
         <v>32</v>
       </c>
-      <c r="AJ1" s="71">
+      <c r="AJ1" s="66">
         <v>33</v>
       </c>
-      <c r="AK1" s="71">
+      <c r="AK1" s="66">
         <v>34</v>
       </c>
-      <c r="AL1" s="71">
+      <c r="AL1" s="66">
         <v>35</v>
       </c>
-      <c r="AM1" s="72">
+      <c r="AM1" s="67">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="41" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="74"/>
+      <c r="C2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="101"/>
     </row>
     <row r="3" spans="1:39" s="42" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="75">
+        <v>7</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="68">
         <v>500</v>
       </c>
       <c r="E3" s="16">
@@ -7007,10 +8836,10 @@
       <c r="N3" s="16">
         <v>600</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="69">
         <v>500</v>
       </c>
-      <c r="P3" s="75">
+      <c r="P3" s="68">
         <v>200</v>
       </c>
       <c r="Q3" s="16">
@@ -7043,10 +8872,10 @@
       <c r="Z3" s="16">
         <v>0</v>
       </c>
-      <c r="AA3" s="76">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="75">
+      <c r="AA3" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="68">
         <v>0</v>
       </c>
       <c r="AC3" s="16">
@@ -7079,19 +8908,19 @@
       <c r="AL3" s="16">
         <v>0</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AM3" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="42" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="75">
+        <v>8</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="68">
         <v>0</v>
       </c>
       <c r="E4" s="16">
@@ -7124,10 +8953,10 @@
       <c r="N4" s="16">
         <v>2000</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="69">
         <v>1800</v>
       </c>
-      <c r="P4" s="75">
+      <c r="P4" s="68">
         <v>2050</v>
       </c>
       <c r="Q4" s="16">
@@ -7160,10 +8989,10 @@
       <c r="Z4" s="16">
         <v>2000</v>
       </c>
-      <c r="AA4" s="76">
+      <c r="AA4" s="69">
         <v>2000</v>
       </c>
-      <c r="AB4" s="75">
+      <c r="AB4" s="68">
         <v>1900</v>
       </c>
       <c r="AC4" s="16">
@@ -7196,19 +9025,19 @@
       <c r="AL4" s="16">
         <v>1800</v>
       </c>
-      <c r="AM4" s="76">
+      <c r="AM4" s="69">
         <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="42" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="75">
+        <v>9</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="68">
         <v>0</v>
       </c>
       <c r="E5" s="16">
@@ -7241,10 +9070,10 @@
       <c r="N5" s="16">
         <v>1400</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="69">
         <v>2000</v>
       </c>
-      <c r="P5" s="75">
+      <c r="P5" s="68">
         <v>2450</v>
       </c>
       <c r="Q5" s="16">
@@ -7277,10 +9106,10 @@
       <c r="Z5" s="16">
         <v>3000</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AA5" s="69">
         <v>3000</v>
       </c>
-      <c r="AB5" s="75">
+      <c r="AB5" s="68">
         <v>3600</v>
       </c>
       <c r="AC5" s="16">
@@ -7313,19 +9142,19 @@
       <c r="AL5" s="16">
         <v>4200</v>
       </c>
-      <c r="AM5" s="76">
+      <c r="AM5" s="69">
         <v>4200</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="42" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="75">
+        <v>10</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="68">
         <v>0</v>
       </c>
       <c r="E6" s="16">
@@ -7358,10 +9187,10 @@
       <c r="N6" s="16">
         <v>0</v>
       </c>
-      <c r="O6" s="76">
-        <v>0</v>
-      </c>
-      <c r="P6" s="75">
+      <c r="O6" s="69">
+        <v>0</v>
+      </c>
+      <c r="P6" s="68">
         <v>1250</v>
       </c>
       <c r="Q6" s="16">
@@ -7394,10 +9223,10 @@
       <c r="Z6" s="16">
         <v>3000</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AA6" s="69">
         <v>3000</v>
       </c>
-      <c r="AB6" s="75">
+      <c r="AB6" s="68">
         <v>3600</v>
       </c>
       <c r="AC6" s="16">
@@ -7430,21 +9259,21 @@
       <c r="AL6" s="16">
         <v>4800</v>
       </c>
-      <c r="AM6" s="76">
+      <c r="AM6" s="69">
         <v>4800</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="42" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="64">
+        <v>23</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="59">
         <v>900</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -7455,8 +9284,8 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="90"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="81"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -7467,8 +9296,8 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="90"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="81"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -7479,157 +9308,157 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="91"/>
+      <c r="AM7" s="82"/>
     </row>
-    <row r="8" spans="1:39" s="100" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="96">
+    <row r="8" spans="1:39" s="91" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="87">
         <v>1500</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="88">
         <f>SUM(D3:D7)</f>
         <v>500</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="89">
         <f t="shared" ref="E8:AM8" si="0">SUM(E3:E7)</f>
         <v>1600</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="89">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="89">
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="89">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="89">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="89">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="K8" s="98">
+      <c r="K8" s="89">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="89">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="M8" s="98">
+      <c r="M8" s="89">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="N8" s="98">
+      <c r="N8" s="89">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="90">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="88">
         <f t="shared" si="0"/>
         <v>5950</v>
       </c>
-      <c r="Q8" s="98">
+      <c r="Q8" s="89">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="R8" s="98">
+      <c r="R8" s="89">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="S8" s="98">
+      <c r="S8" s="89">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="T8" s="98">
+      <c r="T8" s="89">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="U8" s="98">
+      <c r="U8" s="89">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="V8" s="98">
+      <c r="V8" s="89">
         <f t="shared" si="0"/>
         <v>7750</v>
       </c>
-      <c r="W8" s="98">
+      <c r="W8" s="89">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="X8" s="98">
+      <c r="X8" s="89">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="Y8" s="98">
+      <c r="Y8" s="89">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="Z8" s="98">
+      <c r="Z8" s="89">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AA8" s="99">
+      <c r="AA8" s="90">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AB8" s="97">
+      <c r="AB8" s="88">
         <f t="shared" si="0"/>
         <v>9100</v>
       </c>
-      <c r="AC8" s="98">
+      <c r="AC8" s="89">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="AD8" s="98">
+      <c r="AD8" s="89">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="AE8" s="98">
+      <c r="AE8" s="89">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="AF8" s="98">
+      <c r="AF8" s="89">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="AG8" s="98">
+      <c r="AG8" s="89">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="AH8" s="98">
+      <c r="AH8" s="89">
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="AI8" s="98">
+      <c r="AI8" s="89">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="AJ8" s="98">
+      <c r="AJ8" s="89">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="AK8" s="98">
+      <c r="AK8" s="89">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="AL8" s="98">
+      <c r="AL8" s="89">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="AM8" s="99">
+      <c r="AM8" s="90">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
@@ -7637,63 +9466,63 @@
     <row r="9" spans="1:39" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="43"/>
       <c r="B9" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="78"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="98"/>
     </row>
     <row r="10" spans="1:39" s="45" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="79">
+        <v>15</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="70">
         <v>108</v>
       </c>
       <c r="E10" s="6">
@@ -7726,10 +9555,10 @@
       <c r="N10" s="6">
         <v>108</v>
       </c>
-      <c r="O10" s="80">
+      <c r="O10" s="71">
         <v>108</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="72">
         <v>240</v>
       </c>
       <c r="Q10" s="46">
@@ -7762,10 +9591,10 @@
       <c r="Z10" s="46">
         <v>240</v>
       </c>
-      <c r="AA10" s="82">
+      <c r="AA10" s="73">
         <v>240</v>
       </c>
-      <c r="AB10" s="81">
+      <c r="AB10" s="72">
         <v>240</v>
       </c>
       <c r="AC10" s="46">
@@ -7798,21 +9627,21 @@
       <c r="AL10" s="46">
         <v>240</v>
       </c>
-      <c r="AM10" s="82">
+      <c r="AM10" s="73">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:39" s="45" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="66">
+        <v>22</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="61">
         <v>7</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -7823,8 +9652,8 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="92"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="83"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -7835,8 +9664,8 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="92"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="83"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -7847,15 +9676,15 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="93"/>
+      <c r="AM11" s="84"/>
     </row>
     <row r="12" spans="1:39" s="45" customFormat="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="79">
+      <c r="B12" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="70">
         <v>65</v>
       </c>
       <c r="E12" s="6">
@@ -7888,10 +9717,10 @@
       <c r="N12" s="6">
         <v>65</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="71">
         <v>65</v>
       </c>
-      <c r="P12" s="79">
+      <c r="P12" s="70">
         <v>0</v>
       </c>
       <c r="Q12" s="6">
@@ -7924,10 +9753,10 @@
       <c r="Z12" s="6">
         <v>0</v>
       </c>
-      <c r="AA12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="79">
+      <c r="AA12" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="70">
         <v>0</v>
       </c>
       <c r="AC12" s="6">
@@ -7960,21 +9789,21 @@
       <c r="AL12" s="6">
         <v>0</v>
       </c>
-      <c r="AM12" s="80">
+      <c r="AM12" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:39" s="45" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="66">
+        <v>17</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="61">
         <v>60.8</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="70">
         <v>60.8</v>
       </c>
       <c r="E13" s="6">
@@ -8007,10 +9836,10 @@
       <c r="N13" s="6">
         <v>60.8</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="71">
         <v>60.8</v>
       </c>
-      <c r="P13" s="79">
+      <c r="P13" s="70">
         <v>60.8</v>
       </c>
       <c r="Q13" s="6">
@@ -8043,10 +9872,10 @@
       <c r="Z13" s="6">
         <v>60.8</v>
       </c>
-      <c r="AA13" s="80">
+      <c r="AA13" s="71">
         <v>60.8</v>
       </c>
-      <c r="AB13" s="79">
+      <c r="AB13" s="70">
         <v>60.8</v>
       </c>
       <c r="AC13" s="6">
@@ -8079,19 +9908,19 @@
       <c r="AL13" s="6">
         <v>60.8</v>
       </c>
-      <c r="AM13" s="80">
+      <c r="AM13" s="71">
         <v>60.8</v>
       </c>
     </row>
     <row r="14" spans="1:39" s="45" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="79">
+        <v>2</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="70">
         <v>17</v>
       </c>
       <c r="E14" s="6">
@@ -8124,10 +9953,10 @@
       <c r="N14" s="6">
         <v>17</v>
       </c>
-      <c r="O14" s="80">
+      <c r="O14" s="71">
         <v>17</v>
       </c>
-      <c r="P14" s="79">
+      <c r="P14" s="70">
         <v>34</v>
       </c>
       <c r="Q14" s="6">
@@ -8160,10 +9989,10 @@
       <c r="Z14" s="6">
         <v>34</v>
       </c>
-      <c r="AA14" s="80">
+      <c r="AA14" s="71">
         <v>34</v>
       </c>
-      <c r="AB14" s="79">
+      <c r="AB14" s="70">
         <v>34</v>
       </c>
       <c r="AC14" s="6">
@@ -8196,19 +10025,19 @@
       <c r="AL14" s="6">
         <v>34</v>
       </c>
-      <c r="AM14" s="80">
+      <c r="AM14" s="71">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:39" s="45" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="79">
+        <v>44</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="70">
         <f>SUM((46.88*3)+6)</f>
         <v>146.64000000000001</v>
       </c>
@@ -8252,11 +10081,11 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="O15" s="80">
+      <c r="O15" s="71">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="P15" s="79">
+      <c r="P15" s="70">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
@@ -8300,11 +10129,11 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AA15" s="80">
+      <c r="AA15" s="71">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AB15" s="79">
+      <c r="AB15" s="70">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
@@ -8348,20 +10177,20 @@
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="AM15" s="80">
+      <c r="AM15" s="71">
         <f t="shared" si="1"/>
         <v>146.64000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:39" s="45" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="79">
+        <v>3</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="70">
         <v>0</v>
       </c>
       <c r="E16" s="6">
@@ -8394,10 +10223,10 @@
       <c r="N16" s="6">
         <v>9.9</v>
       </c>
-      <c r="O16" s="80">
+      <c r="O16" s="71">
         <v>9.9</v>
       </c>
-      <c r="P16" s="79">
+      <c r="P16" s="70">
         <v>9.9</v>
       </c>
       <c r="Q16" s="6">
@@ -8430,10 +10259,10 @@
       <c r="Z16" s="6">
         <v>9.9</v>
       </c>
-      <c r="AA16" s="80">
+      <c r="AA16" s="71">
         <v>9.9</v>
       </c>
-      <c r="AB16" s="79">
+      <c r="AB16" s="70">
         <v>9.9</v>
       </c>
       <c r="AC16" s="6">
@@ -8466,21 +10295,21 @@
       <c r="AL16" s="6">
         <v>9.9</v>
       </c>
-      <c r="AM16" s="80">
+      <c r="AM16" s="71">
         <v>9.9</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="45" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="66">
+        <v>28</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="61">
         <v>11.5</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="70">
         <v>11.5</v>
       </c>
       <c r="E17" s="6">
@@ -8513,10 +10342,10 @@
       <c r="N17" s="6">
         <v>11.5</v>
       </c>
-      <c r="O17" s="80">
+      <c r="O17" s="71">
         <v>11.5</v>
       </c>
-      <c r="P17" s="79">
+      <c r="P17" s="70">
         <v>22.5</v>
       </c>
       <c r="Q17" s="6">
@@ -8549,10 +10378,10 @@
       <c r="Z17" s="6">
         <v>22.5</v>
       </c>
-      <c r="AA17" s="80">
+      <c r="AA17" s="71">
         <v>22.5</v>
       </c>
-      <c r="AB17" s="79">
+      <c r="AB17" s="70">
         <v>22.5</v>
       </c>
       <c r="AC17" s="6">
@@ -8585,17 +10414,17 @@
       <c r="AL17" s="6">
         <v>22.5</v>
       </c>
-      <c r="AM17" s="80">
+      <c r="AM17" s="71">
         <v>22.5</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -8606,10 +10435,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="80">
+      <c r="O18" s="71">
         <v>1000</v>
       </c>
-      <c r="P18" s="79"/>
+      <c r="P18" s="70"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -8620,10 +10449,10 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="80">
+      <c r="AA18" s="71">
         <v>10000</v>
       </c>
-      <c r="AB18" s="79"/>
+      <c r="AB18" s="70"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
@@ -8634,17 +10463,17 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="80"/>
+      <c r="AM18" s="71"/>
     </row>
     <row r="19" spans="1:39" s="45" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="79">
+        <v>25</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="70">
         <v>25</v>
       </c>
       <c r="E19" s="6">
@@ -8677,10 +10506,10 @@
       <c r="N19" s="6">
         <v>25</v>
       </c>
-      <c r="O19" s="80">
+      <c r="O19" s="71">
         <v>25</v>
       </c>
-      <c r="P19" s="79">
+      <c r="P19" s="70">
         <v>25</v>
       </c>
       <c r="Q19" s="6">
@@ -8713,10 +10542,10 @@
       <c r="Z19" s="6">
         <v>25</v>
       </c>
-      <c r="AA19" s="80">
+      <c r="AA19" s="71">
         <v>25</v>
       </c>
-      <c r="AB19" s="79">
+      <c r="AB19" s="70">
         <v>25</v>
       </c>
       <c r="AC19" s="6">
@@ -8749,21 +10578,21 @@
       <c r="AL19" s="6">
         <v>25</v>
       </c>
-      <c r="AM19" s="80">
+      <c r="AM19" s="71">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:39" s="45" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="66">
+        <v>42</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="61">
         <v>10</v>
       </c>
-      <c r="D20" s="79"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -8774,8 +10603,8 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="83"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -8786,8 +10615,8 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="92"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="83"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
@@ -8798,17 +10627,17 @@
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="93"/>
+      <c r="AM20" s="84"/>
     </row>
     <row r="21" spans="1:39" s="45" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="79">
+        <v>45</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="70">
         <v>48.79</v>
       </c>
       <c r="E21" s="6">
@@ -8841,10 +10670,10 @@
       <c r="N21" s="6">
         <v>48.79</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="71">
         <v>48.79</v>
       </c>
-      <c r="P21" s="79">
+      <c r="P21" s="70">
         <v>48.79</v>
       </c>
       <c r="Q21" s="6">
@@ -8877,10 +10706,10 @@
       <c r="Z21" s="6">
         <v>48.79</v>
       </c>
-      <c r="AA21" s="80">
+      <c r="AA21" s="71">
         <v>48.79</v>
       </c>
-      <c r="AB21" s="79">
+      <c r="AB21" s="70">
         <v>48.79</v>
       </c>
       <c r="AC21" s="6">
@@ -8913,21 +10742,21 @@
       <c r="AL21" s="6">
         <v>48.79</v>
       </c>
-      <c r="AM21" s="80">
+      <c r="AM21" s="71">
         <v>48.79</v>
       </c>
     </row>
     <row r="22" spans="1:39" s="45" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="66">
+        <v>41</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="61">
         <v>15</v>
       </c>
-      <c r="D22" s="81"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
@@ -8938,10 +10767,10 @@
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="82">
+      <c r="O22" s="73">
         <v>415</v>
       </c>
-      <c r="P22" s="81"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
@@ -8952,10 +10781,10 @@
       <c r="X22" s="46"/>
       <c r="Y22" s="46"/>
       <c r="Z22" s="46"/>
-      <c r="AA22" s="82">
+      <c r="AA22" s="73">
         <v>415</v>
       </c>
-      <c r="AB22" s="81"/>
+      <c r="AB22" s="72"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="46"/>
       <c r="AE22" s="46"/>
@@ -8966,33 +10795,33 @@
       <c r="AJ22" s="46"/>
       <c r="AK22" s="46"/>
       <c r="AL22" s="46"/>
-      <c r="AM22" s="82">
+      <c r="AM22" s="73">
         <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:39" s="45" customFormat="1">
       <c r="A23" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="67">
+        <v>56</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="62">
         <v>1250</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="81"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
@@ -9003,8 +10832,8 @@
       <c r="X23" s="46"/>
       <c r="Y23" s="46"/>
       <c r="Z23" s="46"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="81"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="72"/>
       <c r="AC23" s="46"/>
       <c r="AD23" s="46"/>
       <c r="AE23" s="46"/>
@@ -9015,15 +10844,15 @@
       <c r="AJ23" s="46"/>
       <c r="AK23" s="46"/>
       <c r="AL23" s="46"/>
-      <c r="AM23" s="82"/>
+      <c r="AM23" s="73"/>
     </row>
     <row r="24" spans="1:39" s="45" customFormat="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
@@ -9034,10 +10863,10 @@
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="82">
+      <c r="O24" s="73">
         <v>500</v>
       </c>
-      <c r="P24" s="81"/>
+      <c r="P24" s="72"/>
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
       <c r="S24" s="46"/>
@@ -9048,10 +10877,10 @@
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
-      <c r="AA24" s="82">
+      <c r="AA24" s="73">
         <v>500</v>
       </c>
-      <c r="AB24" s="81"/>
+      <c r="AB24" s="72"/>
       <c r="AC24" s="46"/>
       <c r="AD24" s="46"/>
       <c r="AE24" s="46"/>
@@ -9062,17 +10891,17 @@
       <c r="AJ24" s="46"/>
       <c r="AK24" s="46"/>
       <c r="AL24" s="46"/>
-      <c r="AM24" s="82">
+      <c r="AM24" s="73">
         <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:39" s="45" customFormat="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
@@ -9083,8 +10912,8 @@
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="81">
+      <c r="O25" s="73"/>
+      <c r="P25" s="72">
         <f>SUM(0.2*O29)</f>
         <v>745.80799999999988</v>
       </c>
@@ -9098,8 +10927,8 @@
       <c r="X25" s="46"/>
       <c r="Y25" s="46"/>
       <c r="Z25" s="46"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="81">
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="72">
         <f>SUM(0.2*AA29)</f>
         <v>4443.3343999999988</v>
       </c>
@@ -9113,15 +10942,15 @@
       <c r="AJ25" s="46"/>
       <c r="AK25" s="46"/>
       <c r="AL25" s="46"/>
-      <c r="AM25" s="82"/>
+      <c r="AM25" s="73"/>
     </row>
     <row r="26" spans="1:39" s="45" customFormat="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="79">
+      <c r="B26" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="70">
         <v>0</v>
       </c>
       <c r="E26" s="6">
@@ -9154,10 +10983,10 @@
       <c r="N26" s="6">
         <v>2700</v>
       </c>
-      <c r="O26" s="80">
+      <c r="O26" s="71">
         <v>2700</v>
       </c>
-      <c r="P26" s="81">
+      <c r="P26" s="72">
         <v>4500</v>
       </c>
       <c r="Q26" s="46">
@@ -9190,10 +11019,10 @@
       <c r="Z26" s="46">
         <v>4500</v>
       </c>
-      <c r="AA26" s="82">
+      <c r="AA26" s="73">
         <v>4500</v>
       </c>
-      <c r="AB26" s="81">
+      <c r="AB26" s="72">
         <v>9500</v>
       </c>
       <c r="AC26" s="46">
@@ -9226,469 +11055,469 @@
       <c r="AL26" s="46">
         <v>9500</v>
       </c>
-      <c r="AM26" s="82">
+      <c r="AM26" s="73">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="101" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="96">
-        <f>SUM(C9:C26)</f>
+    <row r="27" spans="1:39" s="92" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="85"/>
+      <c r="B27" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="87">
+        <f t="shared" ref="C27:AM27" si="2">SUM(C9:C26)</f>
         <v>1354.3</v>
       </c>
-      <c r="D27" s="97">
-        <f>SUM(D9:D26)</f>
+      <c r="D27" s="88">
+        <f t="shared" si="2"/>
         <v>482.73000000000008</v>
       </c>
-      <c r="E27" s="98">
-        <f>SUM(E9:E26)</f>
+      <c r="E27" s="89">
+        <f t="shared" si="2"/>
         <v>492.63000000000005</v>
       </c>
-      <c r="F27" s="98">
-        <f>SUM(F9:F26)</f>
+      <c r="F27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="G27" s="98">
-        <f>SUM(G9:G26)</f>
+      <c r="G27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="H27" s="98">
-        <f>SUM(H9:H26)</f>
+      <c r="H27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="I27" s="98">
-        <f>SUM(I9:I26)</f>
+      <c r="I27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="J27" s="98">
-        <f>SUM(J9:J26)</f>
+      <c r="J27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="K27" s="98">
-        <f>SUM(K9:K26)</f>
+      <c r="K27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="L27" s="98">
-        <f>SUM(L9:L26)</f>
+      <c r="L27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="M27" s="98">
-        <f>SUM(M9:M26)</f>
+      <c r="M27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="N27" s="98">
-        <f>SUM(N9:N26)</f>
+      <c r="N27" s="89">
+        <f t="shared" si="2"/>
         <v>3192.63</v>
       </c>
-      <c r="O27" s="99">
-        <f>SUM(O9:O26)</f>
+      <c r="O27" s="90">
+        <f t="shared" si="2"/>
         <v>5107.63</v>
       </c>
-      <c r="P27" s="97">
-        <f>SUM(P9:P26)</f>
+      <c r="P27" s="88">
+        <f t="shared" si="2"/>
         <v>5833.4380000000001</v>
       </c>
-      <c r="Q27" s="98">
-        <f>SUM(Q9:Q26)</f>
+      <c r="Q27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="R27" s="98">
-        <f>SUM(R9:R26)</f>
+      <c r="R27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="S27" s="98">
-        <f>SUM(S9:S26)</f>
+      <c r="S27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="T27" s="98">
-        <f>SUM(T9:T26)</f>
+      <c r="T27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="U27" s="98">
-        <f>SUM(U9:U26)</f>
+      <c r="U27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="V27" s="98">
-        <f>SUM(V9:V26)</f>
+      <c r="V27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="W27" s="98">
-        <f>SUM(W9:W26)</f>
+      <c r="W27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="X27" s="98">
-        <f>SUM(X9:X26)</f>
+      <c r="X27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="Y27" s="98">
-        <f>SUM(Y9:Y26)</f>
+      <c r="Y27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="Z27" s="98">
-        <f>SUM(Z9:Z26)</f>
+      <c r="Z27" s="89">
+        <f t="shared" si="2"/>
         <v>5087.63</v>
       </c>
-      <c r="AA27" s="99">
-        <f>SUM(AA9:AA26)</f>
+      <c r="AA27" s="90">
+        <f t="shared" si="2"/>
         <v>16002.630000000001</v>
       </c>
-      <c r="AB27" s="97">
-        <f>SUM(AB9:AB26)</f>
+      <c r="AB27" s="88">
+        <f t="shared" si="2"/>
         <v>14530.964399999999</v>
       </c>
-      <c r="AC27" s="98">
-        <f>SUM(AC9:AC26)</f>
+      <c r="AC27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AD27" s="98">
-        <f>SUM(AD9:AD26)</f>
+      <c r="AD27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AE27" s="98">
-        <f>SUM(AE9:AE26)</f>
+      <c r="AE27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AF27" s="98">
-        <f>SUM(AF9:AF26)</f>
+      <c r="AF27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AG27" s="98">
-        <f>SUM(AG9:AG26)</f>
+      <c r="AG27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AH27" s="98">
-        <f>SUM(AH9:AH26)</f>
+      <c r="AH27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AI27" s="98">
-        <f>SUM(AI9:AI26)</f>
+      <c r="AI27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AJ27" s="98">
-        <f>SUM(AJ9:AJ26)</f>
+      <c r="AJ27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AK27" s="98">
-        <f>SUM(AK9:AK26)</f>
+      <c r="AK27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AL27" s="98">
-        <f>SUM(AL9:AL26)</f>
+      <c r="AL27" s="89">
+        <f t="shared" si="2"/>
         <v>10087.629999999999</v>
       </c>
-      <c r="AM27" s="99">
-        <f>SUM(AM9:AM26)</f>
+      <c r="AM27" s="90">
+        <f t="shared" si="2"/>
         <v>11002.630000000001</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="2"/>
-      <c r="B28" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="68">
-        <f>C8-C27</f>
+      <c r="B28" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="63">
+        <f t="shared" ref="C28:AM28" si="3">C8-C27</f>
         <v>145.70000000000005</v>
       </c>
-      <c r="D28" s="86">
-        <f>D8-D27</f>
+      <c r="D28" s="77">
+        <f t="shared" si="3"/>
         <v>17.269999999999925</v>
       </c>
       <c r="E28" s="3">
-        <f>E8-E27</f>
+        <f t="shared" si="3"/>
         <v>1107.3699999999999</v>
       </c>
       <c r="F28" s="3">
-        <f>F8-F27</f>
+        <f t="shared" si="3"/>
         <v>-792.63000000000011</v>
       </c>
       <c r="G28" s="3">
-        <f>G8-G27</f>
+        <f t="shared" si="3"/>
         <v>-92.630000000000109</v>
       </c>
       <c r="H28" s="3">
-        <f>H8-H27</f>
+        <f t="shared" si="3"/>
         <v>407.36999999999989</v>
       </c>
       <c r="I28" s="3">
-        <f>I8-I27</f>
+        <f t="shared" si="3"/>
         <v>407.36999999999989</v>
       </c>
       <c r="J28" s="3">
-        <f>J8-J27</f>
+        <f t="shared" si="3"/>
         <v>407.36999999999989</v>
       </c>
       <c r="K28" s="3">
-        <f>K8-K27</f>
+        <f t="shared" si="3"/>
         <v>607.36999999999989</v>
       </c>
       <c r="L28" s="3">
-        <f>L8-L27</f>
+        <f t="shared" si="3"/>
         <v>807.36999999999989</v>
       </c>
       <c r="M28" s="3">
-        <f>M8-M27</f>
+        <f t="shared" si="3"/>
         <v>707.36999999999989</v>
       </c>
       <c r="N28" s="3">
-        <f>N8-N27</f>
+        <f t="shared" si="3"/>
         <v>807.36999999999989</v>
       </c>
-      <c r="O28" s="87">
-        <f>O8-O27</f>
+      <c r="O28" s="78">
+        <f t="shared" si="3"/>
         <v>-807.63000000000011</v>
       </c>
-      <c r="P28" s="86">
-        <f>P8-P27</f>
+      <c r="P28" s="77">
+        <f t="shared" si="3"/>
         <v>116.5619999999999</v>
       </c>
       <c r="Q28" s="3">
-        <f>Q8-Q27</f>
+        <f t="shared" si="3"/>
         <v>2412.37</v>
       </c>
       <c r="R28" s="3">
-        <f>R8-R27</f>
+        <f t="shared" si="3"/>
         <v>2412.37</v>
       </c>
       <c r="S28" s="3">
-        <f>S8-S27</f>
+        <f t="shared" si="3"/>
         <v>2412.37</v>
       </c>
       <c r="T28" s="3">
-        <f>T8-T27</f>
+        <f t="shared" si="3"/>
         <v>2412.37</v>
       </c>
       <c r="U28" s="3">
-        <f>U8-U27</f>
+        <f t="shared" si="3"/>
         <v>2412.37</v>
       </c>
       <c r="V28" s="3">
-        <f>V8-V27</f>
+        <f t="shared" si="3"/>
         <v>2662.37</v>
       </c>
       <c r="W28" s="3">
-        <f>W8-W27</f>
+        <f t="shared" si="3"/>
         <v>2912.37</v>
       </c>
       <c r="X28" s="3">
-        <f>X8-X27</f>
+        <f t="shared" si="3"/>
         <v>2912.37</v>
       </c>
       <c r="Y28" s="3">
-        <f>Y8-Y27</f>
+        <f t="shared" si="3"/>
         <v>2912.37</v>
       </c>
       <c r="Z28" s="3">
-        <f>Z8-Z27</f>
+        <f t="shared" si="3"/>
         <v>2912.37</v>
       </c>
-      <c r="AA28" s="87">
-        <f>AA8-AA27</f>
+      <c r="AA28" s="78">
+        <f t="shared" si="3"/>
         <v>-8002.630000000001</v>
       </c>
-      <c r="AB28" s="86">
-        <f>AB8-AB27</f>
+      <c r="AB28" s="77">
+        <f t="shared" si="3"/>
         <v>-5430.9643999999989</v>
       </c>
       <c r="AC28" s="3">
-        <f>AC8-AC27</f>
+        <f t="shared" si="3"/>
         <v>112.3700000000008</v>
       </c>
       <c r="AD28" s="3">
-        <f>AD8-AD27</f>
+        <f t="shared" si="3"/>
         <v>112.3700000000008</v>
       </c>
       <c r="AE28" s="3">
-        <f>AE8-AE27</f>
+        <f t="shared" si="3"/>
         <v>112.3700000000008</v>
       </c>
       <c r="AF28" s="3">
-        <f>AF8-AF27</f>
+        <f t="shared" si="3"/>
         <v>112.3700000000008</v>
       </c>
       <c r="AG28" s="3">
-        <f>AG8-AG27</f>
+        <f t="shared" si="3"/>
         <v>112.3700000000008</v>
       </c>
       <c r="AH28" s="3">
-        <f>AH8-AH27</f>
+        <f t="shared" si="3"/>
         <v>412.3700000000008</v>
       </c>
       <c r="AI28" s="3">
-        <f>AI8-AI27</f>
+        <f t="shared" si="3"/>
         <v>712.3700000000008</v>
       </c>
       <c r="AJ28" s="3">
-        <f>AJ8-AJ27</f>
+        <f t="shared" si="3"/>
         <v>712.3700000000008</v>
       </c>
       <c r="AK28" s="3">
-        <f>AK8-AK27</f>
+        <f t="shared" si="3"/>
         <v>712.3700000000008</v>
       </c>
       <c r="AL28" s="3">
-        <f>AL8-AL27</f>
+        <f t="shared" si="3"/>
         <v>712.3700000000008</v>
       </c>
-      <c r="AM28" s="87">
-        <f>AM8-AM27</f>
+      <c r="AM28" s="78">
+        <f t="shared" si="3"/>
         <v>-202.63000000000102</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="4"/>
-      <c r="B29" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="69">
+      <c r="B29" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="64">
         <f>C28</f>
         <v>145.70000000000005</v>
       </c>
-      <c r="D29" s="88">
-        <f t="shared" ref="D29:O29" si="2">C29+D28</f>
+      <c r="D29" s="79">
+        <f t="shared" ref="D29:O29" si="4">C29+D28</f>
         <v>162.96999999999997</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1270.3399999999999</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>477.70999999999981</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>385.0799999999997</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>792.44999999999959</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1199.8199999999995</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1607.1899999999994</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2214.5599999999995</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3021.9299999999994</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3729.2999999999993</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4536.6699999999992</v>
       </c>
-      <c r="O29" s="89">
-        <f t="shared" si="2"/>
+      <c r="O29" s="80">
+        <f t="shared" si="4"/>
         <v>3729.0399999999991</v>
       </c>
-      <c r="P29" s="88">
-        <f t="shared" ref="P29" si="3">O29+P28</f>
+      <c r="P29" s="79">
+        <f t="shared" ref="P29" si="5">O29+P28</f>
         <v>3845.601999999999</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" ref="Q29" si="4">P29+Q28</f>
+        <f t="shared" ref="Q29" si="6">P29+Q28</f>
         <v>6257.9719999999988</v>
       </c>
       <c r="R29" s="22">
-        <f t="shared" ref="R29" si="5">Q29+R28</f>
+        <f t="shared" ref="R29" si="7">Q29+R28</f>
         <v>8670.3419999999987</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" ref="S29" si="6">R29+S28</f>
+        <f t="shared" ref="S29" si="8">R29+S28</f>
         <v>11082.712</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" ref="T29" si="7">S29+T28</f>
+        <f t="shared" ref="T29" si="9">S29+T28</f>
         <v>13495.081999999999</v>
       </c>
       <c r="U29" s="22">
-        <f t="shared" ref="U29" si="8">T29+U28</f>
+        <f t="shared" ref="U29" si="10">T29+U28</f>
         <v>15907.451999999997</v>
       </c>
       <c r="V29" s="22">
-        <f t="shared" ref="V29" si="9">U29+V28</f>
+        <f t="shared" ref="V29" si="11">U29+V28</f>
         <v>18569.821999999996</v>
       </c>
       <c r="W29" s="22">
-        <f t="shared" ref="W29" si="10">V29+W28</f>
+        <f t="shared" ref="W29" si="12">V29+W28</f>
         <v>21482.191999999995</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" ref="X29" si="11">W29+X28</f>
+        <f t="shared" ref="X29" si="13">W29+X28</f>
         <v>24394.561999999994</v>
       </c>
       <c r="Y29" s="22">
-        <f t="shared" ref="Y29" si="12">X29+Y28</f>
+        <f t="shared" ref="Y29" si="14">X29+Y28</f>
         <v>27306.931999999993</v>
       </c>
       <c r="Z29" s="22">
-        <f t="shared" ref="Z29" si="13">Y29+Z28</f>
+        <f t="shared" ref="Z29" si="15">Y29+Z28</f>
         <v>30219.301999999992</v>
       </c>
-      <c r="AA29" s="89">
-        <f t="shared" ref="AA29" si="14">Z29+AA28</f>
+      <c r="AA29" s="80">
+        <f t="shared" ref="AA29" si="16">Z29+AA28</f>
         <v>22216.671999999991</v>
       </c>
-      <c r="AB29" s="88">
-        <f t="shared" ref="AB29" si="15">AA29+AB28</f>
+      <c r="AB29" s="79">
+        <f t="shared" ref="AB29" si="17">AA29+AB28</f>
         <v>16785.707599999994</v>
       </c>
       <c r="AC29" s="22">
-        <f t="shared" ref="AC29" si="16">AB29+AC28</f>
+        <f t="shared" ref="AC29" si="18">AB29+AC28</f>
         <v>16898.077599999997</v>
       </c>
       <c r="AD29" s="22">
-        <f t="shared" ref="AD29" si="17">AC29+AD28</f>
+        <f t="shared" ref="AD29" si="19">AC29+AD28</f>
         <v>17010.4476</v>
       </c>
       <c r="AE29" s="22">
-        <f t="shared" ref="AE29" si="18">AD29+AE28</f>
+        <f t="shared" ref="AE29" si="20">AD29+AE28</f>
         <v>17122.817600000002</v>
       </c>
       <c r="AF29" s="22">
-        <f t="shared" ref="AF29" si="19">AE29+AF28</f>
+        <f t="shared" ref="AF29" si="21">AE29+AF28</f>
         <v>17235.187600000005</v>
       </c>
       <c r="AG29" s="22">
-        <f t="shared" ref="AG29" si="20">AF29+AG28</f>
+        <f t="shared" ref="AG29" si="22">AF29+AG28</f>
         <v>17347.557600000007</v>
       </c>
       <c r="AH29" s="22">
-        <f t="shared" ref="AH29" si="21">AG29+AH28</f>
+        <f t="shared" ref="AH29" si="23">AG29+AH28</f>
         <v>17759.92760000001</v>
       </c>
       <c r="AI29" s="22">
-        <f t="shared" ref="AI29" si="22">AH29+AI28</f>
+        <f t="shared" ref="AI29" si="24">AH29+AI28</f>
         <v>18472.297600000013</v>
       </c>
       <c r="AJ29" s="22">
-        <f t="shared" ref="AJ29" si="23">AI29+AJ28</f>
+        <f t="shared" ref="AJ29" si="25">AI29+AJ28</f>
         <v>19184.667600000015</v>
       </c>
       <c r="AK29" s="22">
-        <f t="shared" ref="AK29" si="24">AJ29+AK28</f>
+        <f t="shared" ref="AK29" si="26">AJ29+AK28</f>
         <v>19897.037600000018</v>
       </c>
       <c r="AL29" s="22">
-        <f t="shared" ref="AL29" si="25">AK29+AL28</f>
+        <f t="shared" ref="AL29" si="27">AK29+AL28</f>
         <v>20609.40760000002</v>
       </c>
-      <c r="AM29" s="89">
-        <f t="shared" ref="AM29" si="26">AL29+AM28</f>
+      <c r="AM29" s="80">
+        <f t="shared" ref="AM29" si="28">AL29+AM28</f>
         <v>20406.777600000019</v>
       </c>
     </row>
@@ -9733,10 +11562,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C28:AM29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9769,7 +11598,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -9849,7 +11678,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9929,7 +11758,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>36170.959999999999</v>
@@ -10017,4 +11846,1171 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="102"/>
+    <col min="2" max="2" width="8.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="12.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="13.83203125" style="102" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="102"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="109" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="103"/>
+      <c r="B1" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="105">
+        <v>1500</v>
+      </c>
+      <c r="D1" s="106">
+        <v>500</v>
+      </c>
+      <c r="E1" s="107">
+        <v>1600</v>
+      </c>
+      <c r="F1" s="107">
+        <v>2400</v>
+      </c>
+      <c r="G1" s="107">
+        <v>3100</v>
+      </c>
+      <c r="H1" s="107">
+        <v>3600</v>
+      </c>
+      <c r="I1" s="107">
+        <v>3600</v>
+      </c>
+      <c r="J1" s="107">
+        <v>3600</v>
+      </c>
+      <c r="K1" s="107">
+        <v>3800</v>
+      </c>
+      <c r="L1" s="107">
+        <v>4000</v>
+      </c>
+      <c r="M1" s="107">
+        <v>3900</v>
+      </c>
+      <c r="N1" s="107">
+        <v>4000</v>
+      </c>
+      <c r="O1" s="108">
+        <v>4300</v>
+      </c>
+      <c r="P1" s="106">
+        <v>5950</v>
+      </c>
+      <c r="Q1" s="107">
+        <v>7500</v>
+      </c>
+      <c r="R1" s="107">
+        <v>7500</v>
+      </c>
+      <c r="S1" s="107">
+        <v>7500</v>
+      </c>
+      <c r="T1" s="107">
+        <v>7500</v>
+      </c>
+      <c r="U1" s="107">
+        <v>7500</v>
+      </c>
+      <c r="V1" s="107">
+        <v>7750</v>
+      </c>
+      <c r="W1" s="107">
+        <v>8000</v>
+      </c>
+      <c r="X1" s="107">
+        <v>8000</v>
+      </c>
+      <c r="Y1" s="107">
+        <v>8000</v>
+      </c>
+      <c r="Z1" s="107">
+        <v>8000</v>
+      </c>
+      <c r="AA1" s="108">
+        <v>8000</v>
+      </c>
+      <c r="AB1" s="106">
+        <v>9100</v>
+      </c>
+      <c r="AC1" s="107">
+        <v>10200</v>
+      </c>
+      <c r="AD1" s="107">
+        <v>10200</v>
+      </c>
+      <c r="AE1" s="107">
+        <v>10200</v>
+      </c>
+      <c r="AF1" s="107">
+        <v>10200</v>
+      </c>
+      <c r="AG1" s="107">
+        <v>10200</v>
+      </c>
+      <c r="AH1" s="107">
+        <v>10500</v>
+      </c>
+      <c r="AI1" s="107">
+        <v>10800</v>
+      </c>
+      <c r="AJ1" s="107">
+        <v>10800</v>
+      </c>
+      <c r="AK1" s="107">
+        <v>10800</v>
+      </c>
+      <c r="AL1" s="107">
+        <v>10800</v>
+      </c>
+      <c r="AM1" s="108">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="110" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="105">
+        <v>1354.3</v>
+      </c>
+      <c r="D2" s="106">
+        <v>482.73000000000008</v>
+      </c>
+      <c r="E2" s="107">
+        <v>492.63000000000005</v>
+      </c>
+      <c r="F2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="G2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="H2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="I2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="J2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="K2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="L2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="M2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="N2" s="107">
+        <v>3192.63</v>
+      </c>
+      <c r="O2" s="108">
+        <v>5107.63</v>
+      </c>
+      <c r="P2" s="106">
+        <v>5833.4380000000001</v>
+      </c>
+      <c r="Q2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="R2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="S2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="T2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="U2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="V2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="W2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="X2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="Y2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="Z2" s="107">
+        <v>5087.63</v>
+      </c>
+      <c r="AA2" s="108">
+        <v>16002.630000000001</v>
+      </c>
+      <c r="AB2" s="106">
+        <v>14530.964399999999</v>
+      </c>
+      <c r="AC2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AD2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AE2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AF2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AG2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AH2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AI2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AJ2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AK2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AL2" s="107">
+        <v>10087.629999999999</v>
+      </c>
+      <c r="AM2" s="108">
+        <v>11002.630000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="117" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="113">
+        <v>145.70000000000005</v>
+      </c>
+      <c r="D3" s="114">
+        <v>17.269999999999925</v>
+      </c>
+      <c r="E3" s="115">
+        <v>1107.3699999999999</v>
+      </c>
+      <c r="F3" s="115">
+        <v>-792.63000000000011</v>
+      </c>
+      <c r="G3" s="115">
+        <v>-92.630000000000109</v>
+      </c>
+      <c r="H3" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="I3" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="J3" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="K3" s="115">
+        <v>607.36999999999989</v>
+      </c>
+      <c r="L3" s="115">
+        <v>807.36999999999989</v>
+      </c>
+      <c r="M3" s="115">
+        <v>707.36999999999989</v>
+      </c>
+      <c r="N3" s="115">
+        <v>807.36999999999989</v>
+      </c>
+      <c r="O3" s="116">
+        <v>-807.63000000000011</v>
+      </c>
+      <c r="P3" s="114">
+        <v>116.5619999999999</v>
+      </c>
+      <c r="Q3" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="R3" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="S3" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="T3" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="U3" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="V3" s="115">
+        <v>2662.37</v>
+      </c>
+      <c r="W3" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="X3" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="Y3" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="Z3" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="AA3" s="116">
+        <v>-8002.630000000001</v>
+      </c>
+      <c r="AB3" s="114">
+        <v>-5430.9643999999989</v>
+      </c>
+      <c r="AC3" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AD3" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AE3" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AF3" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AG3" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AH3" s="115">
+        <v>412.3700000000008</v>
+      </c>
+      <c r="AI3" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AJ3" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AK3" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AL3" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AM3" s="116">
+        <v>-202.63000000000102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="117" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="120">
+        <v>145.70000000000005</v>
+      </c>
+      <c r="D4" s="121">
+        <v>162.96999999999997</v>
+      </c>
+      <c r="E4" s="122">
+        <v>1270.3399999999999</v>
+      </c>
+      <c r="F4" s="122">
+        <v>477.70999999999981</v>
+      </c>
+      <c r="G4" s="122">
+        <v>385.0799999999997</v>
+      </c>
+      <c r="H4" s="122">
+        <v>792.44999999999959</v>
+      </c>
+      <c r="I4" s="122">
+        <v>1199.8199999999995</v>
+      </c>
+      <c r="J4" s="122">
+        <v>1607.1899999999994</v>
+      </c>
+      <c r="K4" s="122">
+        <v>2214.5599999999995</v>
+      </c>
+      <c r="L4" s="122">
+        <v>3021.9299999999994</v>
+      </c>
+      <c r="M4" s="122">
+        <v>3729.2999999999993</v>
+      </c>
+      <c r="N4" s="122">
+        <v>4536.6699999999992</v>
+      </c>
+      <c r="O4" s="123">
+        <v>3729.0399999999991</v>
+      </c>
+      <c r="P4" s="121">
+        <v>3845.601999999999</v>
+      </c>
+      <c r="Q4" s="122">
+        <v>6257.9719999999988</v>
+      </c>
+      <c r="R4" s="122">
+        <v>8670.3419999999987</v>
+      </c>
+      <c r="S4" s="122">
+        <v>11082.712</v>
+      </c>
+      <c r="T4" s="122">
+        <v>13495.081999999999</v>
+      </c>
+      <c r="U4" s="122">
+        <v>15907.451999999997</v>
+      </c>
+      <c r="V4" s="122">
+        <v>18569.821999999996</v>
+      </c>
+      <c r="W4" s="122">
+        <v>21482.191999999995</v>
+      </c>
+      <c r="X4" s="122">
+        <v>24394.561999999994</v>
+      </c>
+      <c r="Y4" s="122">
+        <v>27306.931999999993</v>
+      </c>
+      <c r="Z4" s="122">
+        <v>30219.301999999992</v>
+      </c>
+      <c r="AA4" s="123">
+        <v>22216.671999999991</v>
+      </c>
+      <c r="AB4" s="121">
+        <v>16785.707599999994</v>
+      </c>
+      <c r="AC4" s="122">
+        <v>16898.077599999997</v>
+      </c>
+      <c r="AD4" s="122">
+        <v>17010.4476</v>
+      </c>
+      <c r="AE4" s="122">
+        <v>17122.817600000002</v>
+      </c>
+      <c r="AF4" s="122">
+        <v>17235.187600000005</v>
+      </c>
+      <c r="AG4" s="122">
+        <v>17347.557600000007</v>
+      </c>
+      <c r="AH4" s="122">
+        <v>17759.92760000001</v>
+      </c>
+      <c r="AI4" s="122">
+        <v>18472.297600000013</v>
+      </c>
+      <c r="AJ4" s="122">
+        <v>19184.667600000015</v>
+      </c>
+      <c r="AK4" s="122">
+        <v>19897.037600000018</v>
+      </c>
+      <c r="AL4" s="122">
+        <v>20609.40760000002</v>
+      </c>
+      <c r="AM4" s="123">
+        <v>20406.777600000019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="24" customHeight="1">
+      <c r="B6" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="102">
+        <v>0</v>
+      </c>
+      <c r="D6" s="102">
+        <v>1</v>
+      </c>
+      <c r="E6" s="102">
+        <v>2</v>
+      </c>
+      <c r="F6" s="102">
+        <v>3</v>
+      </c>
+      <c r="G6" s="102">
+        <v>4</v>
+      </c>
+      <c r="H6" s="102">
+        <v>5</v>
+      </c>
+      <c r="I6" s="102">
+        <v>6</v>
+      </c>
+      <c r="J6" s="102">
+        <v>7</v>
+      </c>
+      <c r="K6" s="102">
+        <v>8</v>
+      </c>
+      <c r="L6" s="102">
+        <v>9</v>
+      </c>
+      <c r="M6" s="102">
+        <v>10</v>
+      </c>
+      <c r="N6" s="102">
+        <v>11</v>
+      </c>
+      <c r="O6" s="102">
+        <v>12</v>
+      </c>
+      <c r="P6" s="102">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="102">
+        <v>14</v>
+      </c>
+      <c r="R6" s="102">
+        <v>15</v>
+      </c>
+      <c r="S6" s="102">
+        <v>16</v>
+      </c>
+      <c r="T6" s="102">
+        <v>17</v>
+      </c>
+      <c r="U6" s="102">
+        <v>18</v>
+      </c>
+      <c r="V6" s="102">
+        <v>19</v>
+      </c>
+      <c r="W6" s="102">
+        <v>20</v>
+      </c>
+      <c r="X6" s="102">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="102">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="102">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="102">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="102">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="102">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="102">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="102">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="102">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="102">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="102">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="102">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="102">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="102">
+        <v>34</v>
+      </c>
+      <c r="AL6" s="102">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="102">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="24" customHeight="1">
+      <c r="B7" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="105">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="124">
+        <f>SUM(D1+C7)</f>
+        <v>2000</v>
+      </c>
+      <c r="E7" s="124">
+        <f t="shared" ref="E7:N7" si="0">SUM(E1+D7)</f>
+        <v>3600</v>
+      </c>
+      <c r="F7" s="124">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G7" s="124">
+        <f t="shared" si="0"/>
+        <v>9100</v>
+      </c>
+      <c r="H7" s="124">
+        <f t="shared" si="0"/>
+        <v>12700</v>
+      </c>
+      <c r="I7" s="124">
+        <f t="shared" si="0"/>
+        <v>16300</v>
+      </c>
+      <c r="J7" s="124">
+        <f t="shared" si="0"/>
+        <v>19900</v>
+      </c>
+      <c r="K7" s="124">
+        <f t="shared" si="0"/>
+        <v>23700</v>
+      </c>
+      <c r="L7" s="124">
+        <f t="shared" si="0"/>
+        <v>27700</v>
+      </c>
+      <c r="M7" s="124">
+        <f t="shared" si="0"/>
+        <v>31600</v>
+      </c>
+      <c r="N7" s="124">
+        <f t="shared" si="0"/>
+        <v>35600</v>
+      </c>
+      <c r="O7" s="124">
+        <f t="shared" ref="O7:AM7" si="1">SUM(O1+N7)</f>
+        <v>39900</v>
+      </c>
+      <c r="P7" s="124">
+        <f t="shared" si="1"/>
+        <v>45850</v>
+      </c>
+      <c r="Q7" s="124">
+        <f t="shared" si="1"/>
+        <v>53350</v>
+      </c>
+      <c r="R7" s="124">
+        <f t="shared" si="1"/>
+        <v>60850</v>
+      </c>
+      <c r="S7" s="124">
+        <f t="shared" si="1"/>
+        <v>68350</v>
+      </c>
+      <c r="T7" s="124">
+        <f t="shared" si="1"/>
+        <v>75850</v>
+      </c>
+      <c r="U7" s="124">
+        <f t="shared" si="1"/>
+        <v>83350</v>
+      </c>
+      <c r="V7" s="124">
+        <f t="shared" si="1"/>
+        <v>91100</v>
+      </c>
+      <c r="W7" s="124">
+        <f t="shared" si="1"/>
+        <v>99100</v>
+      </c>
+      <c r="X7" s="124">
+        <f t="shared" si="1"/>
+        <v>107100</v>
+      </c>
+      <c r="Y7" s="124">
+        <f t="shared" si="1"/>
+        <v>115100</v>
+      </c>
+      <c r="Z7" s="124">
+        <f t="shared" si="1"/>
+        <v>123100</v>
+      </c>
+      <c r="AA7" s="124">
+        <f t="shared" si="1"/>
+        <v>131100</v>
+      </c>
+      <c r="AB7" s="124">
+        <f t="shared" si="1"/>
+        <v>140200</v>
+      </c>
+      <c r="AC7" s="124">
+        <f t="shared" si="1"/>
+        <v>150400</v>
+      </c>
+      <c r="AD7" s="124">
+        <f t="shared" si="1"/>
+        <v>160600</v>
+      </c>
+      <c r="AE7" s="124">
+        <f t="shared" si="1"/>
+        <v>170800</v>
+      </c>
+      <c r="AF7" s="124">
+        <f t="shared" si="1"/>
+        <v>181000</v>
+      </c>
+      <c r="AG7" s="124">
+        <f t="shared" si="1"/>
+        <v>191200</v>
+      </c>
+      <c r="AH7" s="124">
+        <f t="shared" si="1"/>
+        <v>201700</v>
+      </c>
+      <c r="AI7" s="124">
+        <f t="shared" si="1"/>
+        <v>212500</v>
+      </c>
+      <c r="AJ7" s="124">
+        <f t="shared" si="1"/>
+        <v>223300</v>
+      </c>
+      <c r="AK7" s="124">
+        <f t="shared" si="1"/>
+        <v>234100</v>
+      </c>
+      <c r="AL7" s="124">
+        <f t="shared" si="1"/>
+        <v>244900</v>
+      </c>
+      <c r="AM7" s="124">
+        <f t="shared" si="1"/>
+        <v>255700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="24" customHeight="1">
+      <c r="B8" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="105">
+        <v>1354.3</v>
+      </c>
+      <c r="D8" s="124">
+        <f>SUM(D2+C8)</f>
+        <v>1837.03</v>
+      </c>
+      <c r="E8" s="124">
+        <f>SUM(E2+D8)</f>
+        <v>2329.66</v>
+      </c>
+      <c r="F8" s="124">
+        <f>SUM(F2+E8)</f>
+        <v>5522.29</v>
+      </c>
+      <c r="G8" s="124">
+        <f>SUM(G2+F8)</f>
+        <v>8714.92</v>
+      </c>
+      <c r="H8" s="124">
+        <f>SUM(H2+G8)</f>
+        <v>11907.55</v>
+      </c>
+      <c r="I8" s="124">
+        <f>SUM(I2+H8)</f>
+        <v>15100.18</v>
+      </c>
+      <c r="J8" s="124">
+        <f>SUM(J2+I8)</f>
+        <v>18292.810000000001</v>
+      </c>
+      <c r="K8" s="124">
+        <f>SUM(K2+J8)</f>
+        <v>21485.440000000002</v>
+      </c>
+      <c r="L8" s="124">
+        <f>SUM(L2+K8)</f>
+        <v>24678.070000000003</v>
+      </c>
+      <c r="M8" s="124">
+        <f>SUM(M2+L8)</f>
+        <v>27870.700000000004</v>
+      </c>
+      <c r="N8" s="124">
+        <f>SUM(N2+M8)</f>
+        <v>31063.330000000005</v>
+      </c>
+      <c r="O8" s="124">
+        <f t="shared" ref="O8:AM8" si="2">SUM(O2+N8)</f>
+        <v>36170.960000000006</v>
+      </c>
+      <c r="P8" s="124">
+        <f t="shared" si="2"/>
+        <v>42004.398000000008</v>
+      </c>
+      <c r="Q8" s="124">
+        <f t="shared" si="2"/>
+        <v>47092.028000000006</v>
+      </c>
+      <c r="R8" s="124">
+        <f t="shared" si="2"/>
+        <v>52179.658000000003</v>
+      </c>
+      <c r="S8" s="124">
+        <f t="shared" si="2"/>
+        <v>57267.288</v>
+      </c>
+      <c r="T8" s="124">
+        <f t="shared" si="2"/>
+        <v>62354.917999999998</v>
+      </c>
+      <c r="U8" s="124">
+        <f t="shared" si="2"/>
+        <v>67442.547999999995</v>
+      </c>
+      <c r="V8" s="124">
+        <f t="shared" si="2"/>
+        <v>72530.178</v>
+      </c>
+      <c r="W8" s="124">
+        <f t="shared" si="2"/>
+        <v>77617.808000000005</v>
+      </c>
+      <c r="X8" s="124">
+        <f t="shared" si="2"/>
+        <v>82705.438000000009</v>
+      </c>
+      <c r="Y8" s="124">
+        <f t="shared" si="2"/>
+        <v>87793.068000000014</v>
+      </c>
+      <c r="Z8" s="124">
+        <f t="shared" si="2"/>
+        <v>92880.698000000019</v>
+      </c>
+      <c r="AA8" s="124">
+        <f t="shared" si="2"/>
+        <v>108883.32800000002</v>
+      </c>
+      <c r="AB8" s="124">
+        <f t="shared" si="2"/>
+        <v>123414.29240000002</v>
+      </c>
+      <c r="AC8" s="124">
+        <f t="shared" si="2"/>
+        <v>133501.92240000001</v>
+      </c>
+      <c r="AD8" s="124">
+        <f t="shared" si="2"/>
+        <v>143589.55240000002</v>
+      </c>
+      <c r="AE8" s="124">
+        <f t="shared" si="2"/>
+        <v>153677.18240000002</v>
+      </c>
+      <c r="AF8" s="124">
+        <f t="shared" si="2"/>
+        <v>163764.81240000002</v>
+      </c>
+      <c r="AG8" s="124">
+        <f t="shared" si="2"/>
+        <v>173852.44240000003</v>
+      </c>
+      <c r="AH8" s="124">
+        <f t="shared" si="2"/>
+        <v>183940.07240000003</v>
+      </c>
+      <c r="AI8" s="124">
+        <f t="shared" si="2"/>
+        <v>194027.70240000004</v>
+      </c>
+      <c r="AJ8" s="124">
+        <f t="shared" si="2"/>
+        <v>204115.33240000004</v>
+      </c>
+      <c r="AK8" s="124">
+        <f t="shared" si="2"/>
+        <v>214202.96240000005</v>
+      </c>
+      <c r="AL8" s="124">
+        <f t="shared" si="2"/>
+        <v>224290.59240000005</v>
+      </c>
+      <c r="AM8" s="124">
+        <f t="shared" si="2"/>
+        <v>235293.22240000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="24" customHeight="1">
+      <c r="B9" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="113">
+        <v>145.70000000000005</v>
+      </c>
+      <c r="D9" s="114">
+        <v>17.269999999999925</v>
+      </c>
+      <c r="E9" s="115">
+        <v>1107.3699999999999</v>
+      </c>
+      <c r="F9" s="115">
+        <v>-792.63000000000011</v>
+      </c>
+      <c r="G9" s="115">
+        <v>-92.630000000000109</v>
+      </c>
+      <c r="H9" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="I9" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="J9" s="115">
+        <v>407.36999999999989</v>
+      </c>
+      <c r="K9" s="115">
+        <v>607.36999999999989</v>
+      </c>
+      <c r="L9" s="115">
+        <v>807.36999999999989</v>
+      </c>
+      <c r="M9" s="115">
+        <v>707.36999999999989</v>
+      </c>
+      <c r="N9" s="115">
+        <v>807.36999999999989</v>
+      </c>
+      <c r="O9" s="116">
+        <v>-807.63000000000011</v>
+      </c>
+      <c r="P9" s="114">
+        <v>116.5619999999999</v>
+      </c>
+      <c r="Q9" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="R9" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="S9" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="T9" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="U9" s="115">
+        <v>2412.37</v>
+      </c>
+      <c r="V9" s="115">
+        <v>2662.37</v>
+      </c>
+      <c r="W9" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="X9" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="Y9" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="Z9" s="115">
+        <v>2912.37</v>
+      </c>
+      <c r="AA9" s="116">
+        <v>-8002.630000000001</v>
+      </c>
+      <c r="AB9" s="114">
+        <v>-5430.9643999999989</v>
+      </c>
+      <c r="AC9" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AD9" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AE9" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AF9" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AG9" s="115">
+        <v>112.3700000000008</v>
+      </c>
+      <c r="AH9" s="115">
+        <v>412.3700000000008</v>
+      </c>
+      <c r="AI9" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AJ9" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AK9" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AL9" s="115">
+        <v>712.3700000000008</v>
+      </c>
+      <c r="AM9" s="116">
+        <v>-202.63000000000102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="24" customHeight="1">
+      <c r="B10" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="120">
+        <v>145.70000000000005</v>
+      </c>
+      <c r="D10" s="121">
+        <v>162.96999999999997</v>
+      </c>
+      <c r="E10" s="122">
+        <v>1270.3399999999999</v>
+      </c>
+      <c r="F10" s="122">
+        <v>477.70999999999981</v>
+      </c>
+      <c r="G10" s="122">
+        <v>385.0799999999997</v>
+      </c>
+      <c r="H10" s="122">
+        <v>792.44999999999959</v>
+      </c>
+      <c r="I10" s="122">
+        <v>1199.8199999999995</v>
+      </c>
+      <c r="J10" s="122">
+        <v>1607.1899999999994</v>
+      </c>
+      <c r="K10" s="122">
+        <v>2214.5599999999995</v>
+      </c>
+      <c r="L10" s="122">
+        <v>3021.9299999999994</v>
+      </c>
+      <c r="M10" s="122">
+        <v>3729.2999999999993</v>
+      </c>
+      <c r="N10" s="122">
+        <v>4536.6699999999992</v>
+      </c>
+      <c r="O10" s="123">
+        <v>3729.0399999999991</v>
+      </c>
+      <c r="P10" s="121">
+        <v>3845.601999999999</v>
+      </c>
+      <c r="Q10" s="122">
+        <v>6257.9719999999988</v>
+      </c>
+      <c r="R10" s="122">
+        <v>8670.3419999999987</v>
+      </c>
+      <c r="S10" s="122">
+        <v>11082.712</v>
+      </c>
+      <c r="T10" s="122">
+        <v>13495.081999999999</v>
+      </c>
+      <c r="U10" s="122">
+        <v>15907.451999999997</v>
+      </c>
+      <c r="V10" s="122">
+        <v>18569.821999999996</v>
+      </c>
+      <c r="W10" s="122">
+        <v>21482.191999999995</v>
+      </c>
+      <c r="X10" s="122">
+        <v>24394.561999999994</v>
+      </c>
+      <c r="Y10" s="122">
+        <v>27306.931999999993</v>
+      </c>
+      <c r="Z10" s="122">
+        <v>30219.301999999992</v>
+      </c>
+      <c r="AA10" s="123">
+        <v>22216.671999999991</v>
+      </c>
+      <c r="AB10" s="121">
+        <v>16785.707599999994</v>
+      </c>
+      <c r="AC10" s="122">
+        <v>16898.077599999997</v>
+      </c>
+      <c r="AD10" s="122">
+        <v>17010.4476</v>
+      </c>
+      <c r="AE10" s="122">
+        <v>17122.817600000002</v>
+      </c>
+      <c r="AF10" s="122">
+        <v>17235.187600000005</v>
+      </c>
+      <c r="AG10" s="122">
+        <v>17347.557600000007</v>
+      </c>
+      <c r="AH10" s="122">
+        <v>17759.92760000001</v>
+      </c>
+      <c r="AI10" s="122">
+        <v>18472.297600000013</v>
+      </c>
+      <c r="AJ10" s="122">
+        <v>19184.667600000015</v>
+      </c>
+      <c r="AK10" s="122">
+        <v>19897.037600000018</v>
+      </c>
+      <c r="AL10" s="122">
+        <v>20609.40760000002</v>
+      </c>
+      <c r="AM10" s="123">
+        <v>20406.777600000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:AM4">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:AM10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/business plan/Cash Flow.xlsx
+++ b/business plan/Cash Flow.xlsx
@@ -1278,58 +1278,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="63" builtinId="10"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1407,10 +1356,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.172574533183697"/>
-          <c:y val="0.0217158154022698"/>
-          <c:w val="0.642250071726864"/>
-          <c:h val="0.963312699088165"/>
+          <c:x val="0.236894440628177"/>
+          <c:y val="0.218197228637568"/>
+          <c:w val="0.498665546824513"/>
+          <c:h val="0.593348413888744"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1552,6 +1501,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln cap="rnd"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1944,13 +1896,23 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.795218926328541"/>
-          <c:y val="0.36863609923412"/>
-          <c:w val="0.204781073671459"/>
+          <c:x val="0.712546989318643"/>
+          <c:y val="0.377158825031448"/>
+          <c:w val="0.170052589580149"/>
           <c:h val="0.258706354235043"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1990,7 +1952,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.207138323410793"/>
+          <c:y val="0.168409818569904"/>
+          <c:w val="0.541642164394085"/>
+          <c:h val="0.64290288153682"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3094,8 +3066,27 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.761585365853658"/>
+          <c:y val="0.346861570265296"/>
+          <c:w val="0.132926829268293"/>
+          <c:h val="0.285999378146035"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3135,7 +3126,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.211989318470914"/>
+          <c:y val="0.179184549356223"/>
+          <c:w val="0.558000894638991"/>
+          <c:h val="0.607990098340712"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3346,6 +3347,537 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="24"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Break Even (year 1)'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Break Even (year 1)'!$B$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36170.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2089196216"/>
+        <c:axId val="2089189336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2089196216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089189336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089189336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089196216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.787118113684465"/>
+          <c:y val="0.392977087627995"/>
+          <c:w val="0.096656846702448"/>
+          <c:h val="0.166835524314825"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Break Even (year 1)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Break Even (year 1)'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Break Even (year 1)'!$B$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Break Even (year 1)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Costs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3614,6 +4146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3638,7 +4171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4763,16 +5296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>33868</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1016001</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4793,16 +5326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4816,6 +5349,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>974846</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8614,9 +9179,9 @@
   </sheetPr>
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
